--- a/java/project-JavaBank/out/production/bai-12-JavaBank/io/data.xlsx
+++ b/java/project-JavaBank/out/production/bai-12-JavaBank/io/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huy Binh\Documents\GitHub\nguyenhuybinh2604.github.io\java\project-JavaBank\src\io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB569AE-B75B-4456-80A0-F7302A960144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0891CEF8-CC59-40FF-880B-0256A91E9E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="226">
   <si>
     <t>customerId</t>
   </si>
@@ -717,9 +717,6 @@
     <t>UNKNOWN</t>
   </si>
   <si>
-    <t>INACTIVE</t>
-  </si>
-  <si>
     <t>SAVING</t>
   </si>
   <si>
@@ -754,23 +751,42 @@
   </si>
   <si>
     <t>SGD</t>
+  </si>
+  <si>
+    <t>LOCKED</t>
+  </si>
+  <si>
+    <t>userStatus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -851,23 +867,24 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1088,10 +1105,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1105,7 +1122,7 @@
     <col min="7" max="8" width="8.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1124,8 +1141,11 @@
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="G1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1144,8 +1164,11 @@
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="G2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1164,8 +1187,11 @@
       <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="G3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1184,8 +1210,11 @@
       <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="G4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1204,8 +1233,11 @@
       <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="G5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1221,11 +1253,14 @@
       <c r="E6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="G6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1244,8 +1279,11 @@
       <c r="F7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1258,14 +1296,17 @@
       <c r="D8" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1278,14 +1319,17 @@
       <c r="D9" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1298,14 +1342,17 @@
       <c r="D10" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>191</v>
       </c>
       <c r="F10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1318,14 +1365,17 @@
       <c r="D11" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>192</v>
       </c>
       <c r="F11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1338,14 +1388,17 @@
       <c r="D12" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>193</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1358,14 +1411,17 @@
       <c r="D13" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>194</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1378,14 +1434,17 @@
       <c r="D14" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="12" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1398,14 +1457,17 @@
       <c r="D15" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="11" t="s">
         <v>196</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1418,14 +1480,17 @@
       <c r="D16" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="11" t="s">
         <v>197</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1438,14 +1503,17 @@
       <c r="D17" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="11" t="s">
         <v>198</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1458,14 +1526,17 @@
       <c r="D18" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="11" t="s">
         <v>199</v>
       </c>
       <c r="F18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1478,14 +1549,17 @@
       <c r="D19" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="12" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1498,14 +1572,17 @@
       <c r="D20" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="11" t="s">
         <v>201</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1518,14 +1595,17 @@
       <c r="D21" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="11" t="s">
         <v>202</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1538,14 +1618,17 @@
       <c r="D22" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="11" t="s">
         <v>203</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1558,14 +1641,17 @@
       <c r="D23" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="11" t="s">
         <v>204</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1578,14 +1664,17 @@
       <c r="D24" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="11" t="s">
         <v>205</v>
       </c>
       <c r="F24" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1598,14 +1687,17 @@
       <c r="D25" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="11" t="s">
         <v>206</v>
       </c>
       <c r="F25" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1618,15 +1710,18 @@
       <c r="D26" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="11" t="s">
         <v>207</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
       </c>
+      <c r="G26" t="s">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -1663,63 +1758,63 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <f>C5-C4</f>
         <v>360753754923.08008</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <f>SUM(Loan!I:I)</f>
         <v>440912793000</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <f>C9</f>
         <v>801666547923.08008</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <f>SUM(Account!I:I)</f>
         <v>1421196923.0799999</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <f>SUM(Saving!I:I)</f>
         <v>500245351000</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>300000000000</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <f>SUM(C6:C8)</f>
         <v>801666547923.08008</v>
       </c>
@@ -1734,7 +1829,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1772,6 +1867,9 @@
       <c r="G1" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="H1" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
@@ -1795,6 +1893,9 @@
       <c r="G2" s="3">
         <v>8.5000000000000006E-2</v>
       </c>
+      <c r="H2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
@@ -1818,7 +1919,9 @@
       <c r="G3" s="3">
         <v>0.06</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
@@ -1841,6 +1944,9 @@
       </c>
       <c r="G4" s="3">
         <v>0.06</v>
+      </c>
+      <c r="H4" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1851,10 +1957,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1866,7 +1972,7 @@
     <col min="6" max="25" width="8.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -1885,8 +1991,11 @@
       <c r="F1" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="G1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>68</v>
       </c>
@@ -1904,6 +2013,9 @@
       </c>
       <c r="F2" s="3">
         <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1917,7 +2029,7 @@
   <dimension ref="A1:E1013"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1927,7 +2039,7 @@
     <col min="3" max="3" width="6.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.1328125" customWidth="1"/>
     <col min="5" max="5" width="12.53125" customWidth="1"/>
-    <col min="6" max="16" width="8.73046875" customWidth="1"/>
+    <col min="6" max="15" width="8.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
@@ -2053,16 +2165,16 @@
       <c r="A8" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>100</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>30</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2070,16 +2182,16 @@
       <c r="A9" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>29</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2087,16 +2199,16 @@
       <c r="A10" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>101</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>28</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2104,16 +2216,16 @@
       <c r="A11" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>102</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>31</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2121,16 +2233,16 @@
       <c r="A12" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>46</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2138,16 +2250,16 @@
       <c r="A13" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>47</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2155,16 +2267,16 @@
       <c r="A14" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>45</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2172,16 +2284,16 @@
       <c r="A15" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>50</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2189,16 +2301,16 @@
       <c r="A16" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <v>48</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2206,16 +2318,16 @@
       <c r="A17" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="9">
         <v>32</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2223,16 +2335,16 @@
       <c r="A18" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="9">
         <v>27</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2240,16 +2352,16 @@
       <c r="A19" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="9">
         <v>42</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2257,16 +2369,16 @@
       <c r="A20" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="9">
         <v>41</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2274,16 +2386,16 @@
       <c r="A21" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="9">
         <v>36</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2291,16 +2403,16 @@
       <c r="A22" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="9">
         <v>50</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2308,16 +2420,16 @@
       <c r="A23" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="9">
         <v>30</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2325,16 +2437,16 @@
       <c r="A24" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="9">
         <v>49</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="4" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2342,16 +2454,16 @@
       <c r="A25" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="9">
         <v>43</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="4" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2359,16 +2471,16 @@
       <c r="A26" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="9">
         <v>26</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3421,7 +3533,7 @@
     <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -3431,7 +3543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF21B7AB-93DC-4751-874C-8807C9FDCFB9}">
   <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
@@ -3457,31 +3569,31 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3492,24 +3604,24 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>41092</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H2">
         <v>537251</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <f>H2*VLOOKUP(G2,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>537251</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G2)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3523,24 +3635,24 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>43316</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H3">
         <v>238237</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <f>H3*VLOOKUP(G3,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>238237</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G3)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3554,24 +3666,24 @@
       <c r="C4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>41334</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H4">
         <v>536806</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <f>H4*VLOOKUP(G4,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>536806</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G4)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3585,24 +3697,24 @@
       <c r="C5" s="1">
         <v>3</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>42255</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H5">
         <v>75604</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <f>H5*VLOOKUP(G5,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>75604</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G5)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3616,24 +3728,24 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>42469</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H6">
         <v>113622</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="7">
         <f>H6*VLOOKUP(G6,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>113622</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G6)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3647,24 +3759,24 @@
       <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>40723</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H7">
         <v>287474</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <f>H7*VLOOKUP(G7,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>287474</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G7)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3678,24 +3790,24 @@
       <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>40590</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H8">
         <v>4113</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="7">
         <f>H8*VLOOKUP(G8,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>96655500</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G8)</f>
         <v>0</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3709,24 +3821,24 @@
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>41097</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H9">
         <v>4172</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="7">
         <f>H9*VLOOKUP(G9,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>98042000</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G9)</f>
         <v>0</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3740,24 +3852,24 @@
       <c r="C10" s="1">
         <v>2</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>42263</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H10">
         <v>1626</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="7">
         <f>H10*VLOOKUP(G10,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>38211000</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G10)</f>
         <v>0</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3771,24 +3883,24 @@
       <c r="C11" s="1">
         <v>3</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>41451</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H11">
         <v>3420</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="7">
         <f>H11*VLOOKUP(G11,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>80370000</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G11)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3802,24 +3914,24 @@
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>43745</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H12">
         <v>3742</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="7">
         <f>H12*VLOOKUP(G12,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>87937000</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G12)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3833,24 +3945,24 @@
       <c r="C13" s="1">
         <v>2</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>40997</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H13">
         <v>4345</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="7">
         <f>H13*VLOOKUP(G13,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>102107500</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G13)</f>
         <v>0</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3864,24 +3976,24 @@
       <c r="C14" s="1">
         <v>3</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>43422</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>214</v>
+      <c r="G14" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="H14">
         <v>323</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="7">
         <f>H14*VLOOKUP(G14,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>8421155.8699999992</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G14)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3895,24 +4007,24 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>41168</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>214</v>
+      <c r="G15" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="H15">
         <v>210</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="7">
         <f>H15*VLOOKUP(G15,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>5475054.8999999994</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G15)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3926,24 +4038,24 @@
       <c r="C16" s="1">
         <v>2</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>40835</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>214</v>
+      <c r="G16" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="H16">
         <v>490</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="7">
         <f>H16*VLOOKUP(G16,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>12775128.1</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G16)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3957,24 +4069,24 @@
       <c r="C17" s="1">
         <v>3</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>44123</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>214</v>
+      <c r="G17" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="H17">
         <v>481</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="7">
         <f>H17*VLOOKUP(G17,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>12540482.889999999</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G17)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3988,24 +4100,24 @@
       <c r="C18">
         <v>3</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>41981</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>214</v>
+      <c r="G18" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="H18">
         <v>287</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="7">
         <f>H18*VLOOKUP(G18,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>7482575.0299999993</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G18)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4019,24 +4131,24 @@
       <c r="C19">
         <v>3</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>41004</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>214</v>
+      <c r="G19" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="H19">
         <v>491</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="7">
         <f>H19*VLOOKUP(G19,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>12801199.789999999</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G19)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="K19" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4044,30 +4156,30 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>7</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>42846</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H20">
         <v>9980102</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="7">
         <f>H20*VLOOKUP(G20,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>9980102</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G20)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K20" s="5" t="s">
+      <c r="K20" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4075,30 +4187,30 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>8</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>44145</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H21">
         <v>5476967</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="7">
         <f>H21*VLOOKUP(G21,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>5476967</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G21)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="K21" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4106,30 +4218,30 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>9</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>44904</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H22">
         <v>4549845</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="7">
         <f>H22*VLOOKUP(G22,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>4549845</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G22)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K22" s="5" t="s">
+      <c r="K22" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4137,30 +4249,30 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>10</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>43775</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H23">
         <v>5863377</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="7">
         <f>H23*VLOOKUP(G23,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>5863377</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G23)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K23" s="5" t="s">
+      <c r="K23" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4168,30 +4280,30 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>11</v>
       </c>
       <c r="C24">
         <v>3</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>43591</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H24">
         <v>8448457</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="7">
         <f>H24*VLOOKUP(G24,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>8448457</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G24)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K24" s="5" t="s">
+      <c r="K24" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4199,30 +4311,30 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <v>12</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>44831</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H25">
         <v>3872282</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="7">
         <f>H25*VLOOKUP(G25,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>3872282</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G25)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K25" s="5" t="s">
+      <c r="K25" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4230,30 +4342,30 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>13</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <v>42794</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H26">
         <v>5739796</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="7">
         <f>H26*VLOOKUP(G26,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>5739796</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G26)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K26" s="5" t="s">
+      <c r="K26" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4261,30 +4373,30 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <v>14</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <v>43645</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H27">
         <v>7755939</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="7">
         <f>H27*VLOOKUP(G27,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>7755939</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G27)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K27" s="5" t="s">
+      <c r="K27" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4292,30 +4404,30 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <v>15</v>
       </c>
       <c r="C28">
         <v>3</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <v>44874</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H28">
         <v>7213398</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I28" s="7">
         <f>H28*VLOOKUP(G28,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>7213398</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G28)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K28" s="5" t="s">
+      <c r="K28" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4323,30 +4435,30 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="4">
         <v>16</v>
       </c>
       <c r="C29">
         <v>3</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="5">
         <v>44413</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H29">
         <v>6577462</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="7">
         <f>H29*VLOOKUP(G29,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>6577462</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G29)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K29" s="5" t="s">
+      <c r="K29" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4354,30 +4466,30 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>17</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="5">
         <v>43560</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H30">
         <v>2960169</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I30" s="7">
         <f>H30*VLOOKUP(G30,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>2960169</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J30" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G30)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K30" s="5" t="s">
+      <c r="K30" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4385,30 +4497,30 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <v>18</v>
       </c>
       <c r="C31">
         <v>3</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="5">
         <v>44453</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H31">
         <v>8009206</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I31" s="7">
         <f>H31*VLOOKUP(G31,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>8009206</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J31" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G31)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K31" s="5" t="s">
+      <c r="K31" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4416,30 +4528,30 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>19</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="5">
         <v>44206</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H32">
         <v>7747227</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I32" s="7">
         <f>H32*VLOOKUP(G32,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>7747227</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J32" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G32)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K32" s="5" t="s">
+      <c r="K32" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4447,30 +4559,30 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="4">
         <v>20</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="5">
         <v>44862</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H33">
         <v>8563947</v>
       </c>
-      <c r="I33" s="8">
+      <c r="I33" s="7">
         <f>H33*VLOOKUP(G33,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>8563947</v>
       </c>
-      <c r="J33" s="7">
+      <c r="J33" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G33)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K33" s="5" t="s">
+      <c r="K33" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4478,30 +4590,30 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="4">
         <v>21</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="5">
         <v>43873</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H34">
         <v>9371489</v>
       </c>
-      <c r="I34" s="8">
+      <c r="I34" s="7">
         <f>H34*VLOOKUP(G34,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>9371489</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J34" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G34)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K34" s="5" t="s">
+      <c r="K34" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4509,30 +4621,30 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="4">
         <v>22</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="5">
         <v>43135</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H35">
         <v>5359387</v>
       </c>
-      <c r="I35" s="8">
+      <c r="I35" s="7">
         <f>H35*VLOOKUP(G35,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>5359387</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J35" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G35)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K35" s="5" t="s">
+      <c r="K35" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4540,27 +4652,27 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="4">
         <v>23</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="5">
         <v>43851</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H36">
         <v>7487506</v>
       </c>
-      <c r="I36" s="8">
+      <c r="I36" s="7">
         <f>H36*VLOOKUP(G36,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>7487506</v>
       </c>
-      <c r="J36" s="7">
+      <c r="J36" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G36)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K36" s="5" t="s">
+      <c r="K36" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4568,30 +4680,30 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="4">
         <v>24</v>
       </c>
       <c r="C37">
         <v>2</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="5">
         <v>44812</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H37">
         <v>1603258</v>
       </c>
-      <c r="I37" s="8">
+      <c r="I37" s="7">
         <f>H37*VLOOKUP(G37,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>1603258</v>
       </c>
-      <c r="J37" s="7">
+      <c r="J37" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G37)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K37" s="5" t="s">
+      <c r="K37" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4599,30 +4711,30 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="4">
         <v>25</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="5">
         <v>44040</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H38">
         <v>2798196</v>
       </c>
-      <c r="I38" s="8">
+      <c r="I38" s="7">
         <f>H38*VLOOKUP(G38,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>2798196</v>
       </c>
-      <c r="J38" s="7">
+      <c r="J38" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G38)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K38" s="5" t="s">
+      <c r="K38" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4630,30 +4742,30 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="4">
         <v>7</v>
       </c>
       <c r="C39">
         <v>2</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="5">
         <v>43760</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G39" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H39">
         <v>150</v>
       </c>
-      <c r="I39" s="8">
+      <c r="I39" s="7">
         <f>H39*VLOOKUP(G39,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>3525000</v>
       </c>
-      <c r="J39" s="7">
+      <c r="J39" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G39)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="5" t="s">
+      <c r="K39" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4661,30 +4773,30 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="4">
         <v>8</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="5">
         <v>44115</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H40">
         <v>2967</v>
       </c>
-      <c r="I40" s="8">
+      <c r="I40" s="7">
         <f>H40*VLOOKUP(G40,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>69724500</v>
       </c>
-      <c r="J40" s="7">
+      <c r="J40" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G40)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="5" t="s">
+      <c r="K40" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4692,30 +4804,30 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="4">
         <v>9</v>
       </c>
       <c r="C41">
         <v>3</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="5">
         <v>44188</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H41">
         <v>214</v>
       </c>
-      <c r="I41" s="8">
+      <c r="I41" s="7">
         <f>H41*VLOOKUP(G41,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>5029000</v>
       </c>
-      <c r="J41" s="7">
+      <c r="J41" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G41)</f>
         <v>0</v>
       </c>
-      <c r="K41" s="5" t="s">
+      <c r="K41" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4723,30 +4835,30 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="4">
         <v>10</v>
       </c>
       <c r="C42">
         <v>3</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="5">
         <v>43139</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G42" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H42">
         <v>2850</v>
       </c>
-      <c r="I42" s="8">
+      <c r="I42" s="7">
         <f>H42*VLOOKUP(G42,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>66975000</v>
       </c>
-      <c r="J42" s="7">
+      <c r="J42" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G42)</f>
         <v>0</v>
       </c>
-      <c r="K42" s="5" t="s">
+      <c r="K42" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4754,30 +4866,30 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="4">
         <v>11</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="5">
         <v>44198</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="G43" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H43">
         <v>2852</v>
       </c>
-      <c r="I43" s="8">
+      <c r="I43" s="7">
         <f>H43*VLOOKUP(G43,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>67022000</v>
       </c>
-      <c r="J43" s="7">
+      <c r="J43" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G43)</f>
         <v>0</v>
       </c>
-      <c r="K43" s="5" t="s">
+      <c r="K43" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4785,30 +4897,30 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="4">
         <v>12</v>
       </c>
       <c r="C44">
         <v>2</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="5">
         <v>44371</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="G44" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H44">
         <v>351</v>
       </c>
-      <c r="I44" s="8">
+      <c r="I44" s="7">
         <f>H44*VLOOKUP(G44,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>8248500</v>
       </c>
-      <c r="J44" s="7">
+      <c r="J44" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G44)</f>
         <v>0</v>
       </c>
-      <c r="K44" s="5" t="s">
+      <c r="K44" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4816,30 +4928,30 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="4">
         <v>13</v>
       </c>
       <c r="C45">
         <v>3</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="5">
         <v>44043</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="G45" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H45">
         <v>124</v>
       </c>
-      <c r="I45" s="8">
+      <c r="I45" s="7">
         <f>H45*VLOOKUP(G45,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>2914000</v>
       </c>
-      <c r="J45" s="7">
+      <c r="J45" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G45)</f>
         <v>0</v>
       </c>
-      <c r="K45" s="5" t="s">
+      <c r="K45" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4847,30 +4959,30 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="4">
         <v>14</v>
       </c>
       <c r="C46">
         <v>2</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="5">
         <v>43807</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="G46" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H46">
         <v>1990</v>
       </c>
-      <c r="I46" s="8">
+      <c r="I46" s="7">
         <f>H46*VLOOKUP(G46,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>46765000</v>
       </c>
-      <c r="J46" s="7">
+      <c r="J46" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G46)</f>
         <v>0</v>
       </c>
-      <c r="K46" s="5" t="s">
+      <c r="K46" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4878,30 +4990,30 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="4">
         <v>15</v>
       </c>
       <c r="C47">
         <v>2</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="5">
         <v>44072</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="G47" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H47">
         <v>434</v>
       </c>
-      <c r="I47" s="8">
+      <c r="I47" s="7">
         <f>H47*VLOOKUP(G47,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>10199000</v>
       </c>
-      <c r="J47" s="7">
+      <c r="J47" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G47)</f>
         <v>0</v>
       </c>
-      <c r="K47" s="5" t="s">
+      <c r="K47" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4909,30 +5021,30 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="4">
         <v>16</v>
       </c>
       <c r="C48">
         <v>2</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="5">
         <v>44302</v>
       </c>
-      <c r="G48" s="5" t="s">
+      <c r="G48" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H48">
         <v>1177</v>
       </c>
-      <c r="I48" s="8">
+      <c r="I48" s="7">
         <f>H48*VLOOKUP(G48,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>27659500</v>
       </c>
-      <c r="J48" s="7">
+      <c r="J48" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G48)</f>
         <v>0</v>
       </c>
-      <c r="K48" s="5" t="s">
+      <c r="K48" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4940,30 +5052,30 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="4">
         <v>17</v>
       </c>
       <c r="C49">
         <v>2</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="5">
         <v>43405</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="G49" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H49">
         <v>779</v>
       </c>
-      <c r="I49" s="8">
+      <c r="I49" s="7">
         <f>H49*VLOOKUP(G49,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>18306500</v>
       </c>
-      <c r="J49" s="7">
+      <c r="J49" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G49)</f>
         <v>0</v>
       </c>
-      <c r="K49" s="5" t="s">
+      <c r="K49" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4971,30 +5083,30 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="4">
         <v>18</v>
       </c>
       <c r="C50">
         <v>3</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="5">
         <v>43605</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="G50" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H50">
         <v>360</v>
       </c>
-      <c r="I50" s="8">
+      <c r="I50" s="7">
         <f>H50*VLOOKUP(G50,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>8460000</v>
       </c>
-      <c r="J50" s="7">
+      <c r="J50" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G50)</f>
         <v>0</v>
       </c>
-      <c r="K50" s="5" t="s">
+      <c r="K50" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5002,27 +5114,27 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="4">
         <v>19</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="5">
         <v>44204</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="G51" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H51">
         <v>270</v>
       </c>
-      <c r="I51" s="8">
+      <c r="I51" s="7">
         <f>H51*VLOOKUP(G51,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>6345000</v>
       </c>
-      <c r="J51" s="7">
+      <c r="J51" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G51)</f>
         <v>0</v>
       </c>
-      <c r="K51" s="5" t="s">
+      <c r="K51" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5030,30 +5142,30 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="4">
         <v>20</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="5">
         <v>43202</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="G52" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H52">
         <v>194</v>
       </c>
-      <c r="I52" s="8">
+      <c r="I52" s="7">
         <f>H52*VLOOKUP(G52,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>4559000</v>
       </c>
-      <c r="J52" s="7">
+      <c r="J52" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G52)</f>
         <v>0</v>
       </c>
-      <c r="K52" s="5" t="s">
+      <c r="K52" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5061,30 +5173,30 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53" s="4">
         <v>21</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="5">
         <v>43331</v>
       </c>
-      <c r="G53" s="5" t="s">
+      <c r="G53" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H53">
         <v>420</v>
       </c>
-      <c r="I53" s="8">
+      <c r="I53" s="7">
         <f>H53*VLOOKUP(G53,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>9870000</v>
       </c>
-      <c r="J53" s="7">
+      <c r="J53" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G53)</f>
         <v>0</v>
       </c>
-      <c r="K53" s="5" t="s">
+      <c r="K53" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5092,27 +5204,27 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="4">
         <v>22</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="5">
         <v>44422</v>
       </c>
-      <c r="G54" s="5" t="s">
+      <c r="G54" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H54">
         <v>277</v>
       </c>
-      <c r="I54" s="8">
+      <c r="I54" s="7">
         <f>H54*VLOOKUP(G54,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>6509500</v>
       </c>
-      <c r="J54" s="7">
+      <c r="J54" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G54)</f>
         <v>0</v>
       </c>
-      <c r="K54" s="5" t="s">
+      <c r="K54" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5120,30 +5232,30 @@
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55" s="4">
         <v>23</v>
       </c>
       <c r="C55">
         <v>3</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="5">
         <v>43798</v>
       </c>
-      <c r="G55" s="5" t="s">
+      <c r="G55" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H55">
         <v>1875</v>
       </c>
-      <c r="I55" s="8">
+      <c r="I55" s="7">
         <f>H55*VLOOKUP(G55,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>44062500</v>
       </c>
-      <c r="J55" s="7">
+      <c r="J55" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G55)</f>
         <v>0</v>
       </c>
-      <c r="K55" s="5" t="s">
+      <c r="K55" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5151,30 +5263,30 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="4">
         <v>24</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="5">
         <v>43490</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="G56" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H56">
         <v>662</v>
       </c>
-      <c r="I56" s="8">
+      <c r="I56" s="7">
         <f>H56*VLOOKUP(G56,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>15557000</v>
       </c>
-      <c r="J56" s="7">
+      <c r="J56" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G56)</f>
         <v>0</v>
       </c>
-      <c r="K56" s="5" t="s">
+      <c r="K56" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5182,30 +5294,30 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" s="4">
         <v>25</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="5">
         <v>44425</v>
       </c>
-      <c r="G57" s="5" t="s">
+      <c r="G57" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H57">
         <v>2053</v>
       </c>
-      <c r="I57" s="8">
+      <c r="I57" s="7">
         <f>H57*VLOOKUP(G57,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>48245500</v>
       </c>
-      <c r="J57" s="7">
+      <c r="J57" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G57)</f>
         <v>0</v>
       </c>
-      <c r="K57" s="5" t="s">
+      <c r="K57" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5213,30 +5325,30 @@
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58" s="4">
         <v>7</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="5">
         <v>43277</v>
       </c>
-      <c r="G58" s="5" t="s">
-        <v>214</v>
+      <c r="G58" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="H58">
         <v>646</v>
       </c>
-      <c r="I58" s="8">
+      <c r="I58" s="7">
         <f>H58*VLOOKUP(G58,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>16842311.739999998</v>
       </c>
-      <c r="J58" s="7">
+      <c r="J58" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G58)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K58" s="5" t="s">
+      <c r="K58" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5244,27 +5356,27 @@
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59" s="4">
         <v>8</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="5">
         <v>44312</v>
       </c>
-      <c r="G59" s="5" t="s">
-        <v>214</v>
+      <c r="G59" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="H59">
         <v>676</v>
       </c>
-      <c r="I59" s="8">
+      <c r="I59" s="7">
         <f>H59*VLOOKUP(G59,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>17624462.439999998</v>
       </c>
-      <c r="J59" s="7">
+      <c r="J59" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G59)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K59" s="5" t="s">
+      <c r="K59" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5272,30 +5384,30 @@
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B60" s="4">
         <v>9</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="5">
         <v>44407</v>
       </c>
-      <c r="G60" s="5" t="s">
-        <v>214</v>
+      <c r="G60" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="H60">
         <v>643</v>
       </c>
-      <c r="I60" s="8">
+      <c r="I60" s="7">
         <f>H60*VLOOKUP(G60,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>16764096.67</v>
       </c>
-      <c r="J60" s="7">
+      <c r="J60" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G60)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K60" s="5" t="s">
+      <c r="K60" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5303,30 +5415,30 @@
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61" s="4">
         <v>10</v>
       </c>
       <c r="C61">
         <v>3</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="5">
         <v>44225</v>
       </c>
-      <c r="G61" s="5" t="s">
-        <v>214</v>
+      <c r="G61" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="H61">
         <v>710</v>
       </c>
-      <c r="I61" s="8">
+      <c r="I61" s="7">
         <f>H61*VLOOKUP(G61,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>18510899.899999999</v>
       </c>
-      <c r="J61" s="7">
+      <c r="J61" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G61)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K61" s="5" t="s">
+      <c r="K61" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5334,30 +5446,30 @@
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62" s="4">
         <v>11</v>
       </c>
       <c r="C62">
         <v>3</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D62" s="5">
         <v>43860</v>
       </c>
-      <c r="G62" s="5" t="s">
-        <v>214</v>
+      <c r="G62" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="H62">
         <v>555</v>
       </c>
-      <c r="I62" s="8">
+      <c r="I62" s="7">
         <f>H62*VLOOKUP(G62,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>14469787.949999999</v>
       </c>
-      <c r="J62" s="7">
+      <c r="J62" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G62)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K62" s="5" t="s">
+      <c r="K62" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5365,30 +5477,30 @@
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B63" s="4">
         <v>12</v>
       </c>
       <c r="C63">
         <v>2</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D63" s="5">
         <v>43148</v>
       </c>
-      <c r="G63" s="5" t="s">
-        <v>214</v>
+      <c r="G63" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="H63">
         <v>445</v>
       </c>
-      <c r="I63" s="8">
+      <c r="I63" s="7">
         <f>H63*VLOOKUP(G63,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>11601902.049999999</v>
       </c>
-      <c r="J63" s="7">
+      <c r="J63" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G63)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K63" s="5" t="s">
+      <c r="K63" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5396,30 +5508,30 @@
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B64" s="4">
         <v>13</v>
       </c>
       <c r="C64">
         <v>3</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D64" s="5">
         <v>44407</v>
       </c>
-      <c r="G64" s="5" t="s">
-        <v>214</v>
+      <c r="G64" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="H64">
         <v>44</v>
       </c>
-      <c r="I64" s="8">
+      <c r="I64" s="7">
         <f>H64*VLOOKUP(G64,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>1147154.3599999999</v>
       </c>
-      <c r="J64" s="7">
+      <c r="J64" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G64)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K64" s="5" t="s">
+      <c r="K64" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5427,30 +5539,30 @@
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="5">
+      <c r="B65" s="4">
         <v>14</v>
       </c>
       <c r="C65">
         <v>3</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65" s="5">
         <v>43845</v>
       </c>
-      <c r="G65" s="5" t="s">
-        <v>214</v>
+      <c r="G65" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="H65">
         <v>242</v>
       </c>
-      <c r="I65" s="8">
+      <c r="I65" s="7">
         <f>H65*VLOOKUP(G65,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>6309348.9799999995</v>
       </c>
-      <c r="J65" s="7">
+      <c r="J65" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G65)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K65" s="5" t="s">
+      <c r="K65" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5458,30 +5570,30 @@
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="5">
+      <c r="B66" s="4">
         <v>15</v>
       </c>
       <c r="C66">
         <v>3</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D66" s="5">
         <v>43287</v>
       </c>
-      <c r="G66" s="5" t="s">
-        <v>214</v>
+      <c r="G66" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="H66">
         <v>83</v>
       </c>
-      <c r="I66" s="8">
+      <c r="I66" s="7">
         <f>H66*VLOOKUP(G66,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>2163950.27</v>
       </c>
-      <c r="J66" s="7">
+      <c r="J66" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G66)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K66" s="5" t="s">
+      <c r="K66" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5489,30 +5601,30 @@
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="5">
+      <c r="B67" s="4">
         <v>16</v>
       </c>
       <c r="C67">
         <v>2</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D67" s="5">
         <v>43744</v>
       </c>
-      <c r="G67" s="5" t="s">
-        <v>214</v>
+      <c r="G67" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="H67">
         <v>990</v>
       </c>
-      <c r="I67" s="8">
+      <c r="I67" s="7">
         <f>H67*VLOOKUP(G67,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>25810973.099999998</v>
       </c>
-      <c r="J67" s="7">
+      <c r="J67" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G67)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K67" s="5" t="s">
+      <c r="K67" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5520,30 +5632,30 @@
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B68" s="4">
         <v>17</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D68" s="5">
         <v>43209</v>
       </c>
-      <c r="G68" s="5" t="s">
-        <v>214</v>
+      <c r="G68" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="H68">
         <v>973</v>
       </c>
-      <c r="I68" s="8">
+      <c r="I68" s="7">
         <f>H68*VLOOKUP(G68,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>25367754.369999997</v>
       </c>
-      <c r="J68" s="7">
+      <c r="J68" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G68)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K68" s="5" t="s">
+      <c r="K68" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5551,30 +5663,30 @@
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="5">
+      <c r="B69" s="4">
         <v>18</v>
       </c>
       <c r="C69">
         <v>3</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D69" s="5">
         <v>43609</v>
       </c>
-      <c r="G69" s="5" t="s">
-        <v>214</v>
+      <c r="G69" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="H69">
         <v>658</v>
       </c>
-      <c r="I69" s="8">
+      <c r="I69" s="7">
         <f>H69*VLOOKUP(G69,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>17155172.02</v>
       </c>
-      <c r="J69" s="7">
+      <c r="J69" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G69)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K69" s="5" t="s">
+      <c r="K69" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5582,30 +5694,30 @@
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="5">
+      <c r="B70" s="4">
         <v>19</v>
       </c>
       <c r="C70">
         <v>3</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D70" s="5">
         <v>43615</v>
       </c>
-      <c r="G70" s="5" t="s">
-        <v>214</v>
+      <c r="G70" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="H70">
         <v>814</v>
       </c>
-      <c r="I70" s="8">
+      <c r="I70" s="7">
         <f>H70*VLOOKUP(G70,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>21222355.66</v>
       </c>
-      <c r="J70" s="7">
+      <c r="J70" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G70)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K70" s="5" t="s">
+      <c r="K70" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5613,30 +5725,30 @@
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="5">
+      <c r="B71" s="4">
         <v>20</v>
       </c>
       <c r="C71">
         <v>2</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D71" s="5">
         <v>43638</v>
       </c>
-      <c r="G71" s="5" t="s">
-        <v>214</v>
+      <c r="G71" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="H71">
         <v>656</v>
       </c>
-      <c r="I71" s="8">
+      <c r="I71" s="7">
         <f>H71*VLOOKUP(G71,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>17103028.640000001</v>
       </c>
-      <c r="J71" s="7">
+      <c r="J71" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G71)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K71" s="5" t="s">
+      <c r="K71" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5644,30 +5756,30 @@
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="5">
+      <c r="B72" s="4">
         <v>21</v>
       </c>
       <c r="C72">
         <v>2</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D72" s="5">
         <v>44272</v>
       </c>
-      <c r="G72" s="5" t="s">
-        <v>214</v>
+      <c r="G72" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="H72">
         <v>90</v>
       </c>
-      <c r="I72" s="8">
+      <c r="I72" s="7">
         <f>H72*VLOOKUP(G72,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>2346452.1</v>
       </c>
-      <c r="J72" s="7">
+      <c r="J72" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G72)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K72" s="5" t="s">
+      <c r="K72" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5675,30 +5787,30 @@
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="5">
+      <c r="B73" s="4">
         <v>22</v>
       </c>
       <c r="C73">
         <v>2</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D73" s="5">
         <v>43325</v>
       </c>
-      <c r="G73" s="5" t="s">
-        <v>214</v>
+      <c r="G73" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="H73">
         <v>470</v>
       </c>
-      <c r="I73" s="8">
+      <c r="I73" s="7">
         <f>H73*VLOOKUP(G73,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>12253694.299999999</v>
       </c>
-      <c r="J73" s="7">
+      <c r="J73" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G73)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K73" s="5" t="s">
+      <c r="K73" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5706,27 +5818,27 @@
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="5">
+      <c r="B74" s="4">
         <v>23</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D74" s="5">
         <v>44237</v>
       </c>
-      <c r="G74" s="5" t="s">
-        <v>214</v>
+      <c r="G74" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="H74">
         <v>740</v>
       </c>
-      <c r="I74" s="8">
+      <c r="I74" s="7">
         <f>H74*VLOOKUP(G74,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>19293050.599999998</v>
       </c>
-      <c r="J74" s="7">
+      <c r="J74" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G74)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K74" s="5" t="s">
+      <c r="K74" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5734,30 +5846,30 @@
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="5">
+      <c r="B75" s="4">
         <v>24</v>
       </c>
       <c r="C75">
         <v>2</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D75" s="5">
         <v>43356</v>
       </c>
-      <c r="G75" s="5" t="s">
-        <v>214</v>
+      <c r="G75" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="H75">
         <v>426</v>
       </c>
-      <c r="I75" s="8">
+      <c r="I75" s="7">
         <f>H75*VLOOKUP(G75,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>11106539.939999999</v>
       </c>
-      <c r="J75" s="7">
+      <c r="J75" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G75)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K75" s="5" t="s">
+      <c r="K75" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5765,35 +5877,35 @@
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="5">
+      <c r="B76" s="4">
         <v>25</v>
       </c>
       <c r="C76">
         <v>2</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D76" s="5">
         <v>43771</v>
       </c>
-      <c r="G76" s="5" t="s">
-        <v>214</v>
+      <c r="G76" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="H76">
         <v>389</v>
       </c>
-      <c r="I76" s="8">
+      <c r="I76" s="7">
         <f>H76*VLOOKUP(G76,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>10141887.41</v>
       </c>
-      <c r="J76" s="7">
+      <c r="J76" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G76)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K76" s="5" t="s">
+      <c r="K76" s="4" t="s">
         <v>86</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5803,8 +5915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E00A1F-C9F6-4EB8-BE07-062FE55637D2}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5824,40 +5936,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>87</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="12" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5868,31 +5980,31 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>43948</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <f>DATE(YEAR(D2),MONTH(D2)+F2,DAY(D2))</f>
         <v>45774</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>60</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H2" s="8">
+      <c r="G2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="7">
         <v>3000000000</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <f>VLOOKUP(G2,exchangeRate!$B$2:$D$13,3,FALSE)*H2</f>
         <v>3000000000</v>
       </c>
-      <c r="J2" s="7">
-        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G2,interestRate!$D:$D,Loan!F2,interestRate!$E:$E,Loan!L2)</f>
+      <c r="J2" s="6">
+        <f>IF(K2="LOCKED",0,SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G2,interestRate!$D:$D,Loan!F2,interestRate!$E:$E,Loan!L2))</f>
         <v>0.11600000000000003</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>86</v>
       </c>
       <c r="L2" t="str">
@@ -5910,31 +6022,31 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>43749</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <f t="shared" ref="E3:E21" si="0">DATE(YEAR(D3),MONTH(D3)+F3,DAY(D3))</f>
         <v>51054</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>240</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H3" s="8">
+      <c r="G3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="7">
         <v>10000000000</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <f>VLOOKUP(G3,exchangeRate!$B$2:$D$13,3,FALSE)*H3</f>
         <v>10000000000</v>
       </c>
-      <c r="J3" s="7">
-        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G3,interestRate!$D:$D,Loan!F3,interestRate!$E:$E,Loan!L3)</f>
+      <c r="J3" s="6">
+        <f>IF(K3="LOCKED",0,SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G3,interestRate!$D:$D,Loan!F3,interestRate!$E:$E,Loan!L3))</f>
         <v>0.13300000000000003</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>86</v>
       </c>
       <c r="L3" t="str">
@@ -5952,31 +6064,31 @@
       <c r="C4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>44021</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <f t="shared" si="0"/>
         <v>45482</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>48</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H4" s="8">
+      <c r="G4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="7">
         <v>14000000000</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <f>VLOOKUP(G4,exchangeRate!$B$2:$D$13,3,FALSE)*H4</f>
         <v>14000000000</v>
       </c>
-      <c r="J4" s="7">
-        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G4,interestRate!$D:$D,Loan!F4,interestRate!$E:$E,Loan!L4)</f>
+      <c r="J4" s="6">
+        <f>IF(K4="LOCKED",0,SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G4,interestRate!$D:$D,Loan!F4,interestRate!$E:$E,Loan!L4))</f>
         <v>0.12200000000000004</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>86</v>
       </c>
       <c r="L4" t="str">
@@ -5994,32 +6106,25 @@
       <c r="C5" s="1">
         <v>3</v>
       </c>
-      <c r="D5" s="6">
-        <v>44237</v>
-      </c>
-      <c r="E5" s="6">
-        <f t="shared" si="0"/>
-        <v>46793</v>
-      </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>84</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H5" s="8">
+      <c r="G5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="7">
         <v>38000000000</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <f>VLOOKUP(G5,exchangeRate!$B$2:$D$13,3,FALSE)*H5</f>
         <v>38000000000</v>
       </c>
-      <c r="J5" s="7">
-        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G5,interestRate!$D:$D,Loan!F5,interestRate!$E:$E,Loan!L5)</f>
-        <v>0.12000000000000004</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>86</v>
+      <c r="J5" s="6">
+        <f>IF(K5="LOCKED",0,SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G5,interestRate!$D:$D,Loan!F5,interestRate!$E:$E,Loan!L5))</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>224</v>
       </c>
       <c r="L5" t="str">
         <f>VLOOKUP(B5,Customer!$A$2:$F$26,6)</f>
@@ -6036,25 +6141,25 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>9</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" s="8">
+      <c r="G6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="7">
         <v>30000000000</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="7">
         <f>VLOOKUP(G6,exchangeRate!$B$2:$D$13,3,FALSE)*H6</f>
         <v>30000000000</v>
       </c>
-      <c r="J6" s="7">
-        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G6,interestRate!$D:$D,Loan!F6,interestRate!$E:$E,Loan!L6)</f>
+      <c r="J6" s="6">
+        <f>IF(K6="LOCKED",0,SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G6,interestRate!$D:$D,Loan!F6,interestRate!$E:$E,Loan!L6))</f>
         <v>0</v>
       </c>
-      <c r="K6" s="13" t="s">
-        <v>212</v>
+      <c r="K6" s="15" t="s">
+        <v>224</v>
       </c>
       <c r="L6" t="str">
         <f>VLOOKUP(B6,Customer!$A$2:$F$26,6)</f>
@@ -6071,31 +6176,31 @@
       <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>44163</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <f t="shared" si="0"/>
         <v>44344</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>6</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H7" s="8">
+      <c r="G7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="7">
         <v>11000000000</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <f>VLOOKUP(G7,exchangeRate!$B$2:$D$13,3,FALSE)*H7</f>
         <v>11000000000</v>
       </c>
-      <c r="J7" s="7">
-        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G7,interestRate!$D:$D,Loan!F7,interestRate!$E:$E,Loan!L7)</f>
+      <c r="J7" s="6">
+        <f>IF(K7="LOCKED",0,SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G7,interestRate!$D:$D,Loan!F7,interestRate!$E:$E,Loan!L7))</f>
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="4" t="s">
         <v>86</v>
       </c>
       <c r="L7" t="str">
@@ -6113,31 +6218,31 @@
       <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>44101</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <f t="shared" si="0"/>
         <v>47753</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>120</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H8">
         <v>628877</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="7">
         <f>VLOOKUP(G8,exchangeRate!$B$2:$D$13,3,FALSE)*H8</f>
         <v>14778609500</v>
       </c>
-      <c r="J8" s="7">
-        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G8,interestRate!$D:$D,Loan!F8,interestRate!$E:$E,Loan!L8)</f>
+      <c r="J8" s="6">
+        <f>IF(K8="LOCKED",0,SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G8,interestRate!$D:$D,Loan!F8,interestRate!$E:$E,Loan!L8))</f>
         <v>4.1000000000000009E-2</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="4" t="s">
         <v>86</v>
       </c>
       <c r="L8" t="str">
@@ -6155,31 +6260,31 @@
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>43834</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <f t="shared" si="0"/>
         <v>54792</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>360</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H9">
         <v>904812</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="7">
         <f>VLOOKUP(G9,exchangeRate!$B$2:$D$13,3,FALSE)*H9</f>
         <v>21263082000</v>
       </c>
-      <c r="J9" s="7">
-        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G9,interestRate!$D:$D,Loan!F9,interestRate!$E:$E,Loan!L9)</f>
+      <c r="J9" s="6">
+        <f>IF(K9="LOCKED",0,SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G9,interestRate!$D:$D,Loan!F9,interestRate!$E:$E,Loan!L9))</f>
         <v>4.8000000000000008E-2</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="4" t="s">
         <v>86</v>
       </c>
       <c r="L9" t="str">
@@ -6197,32 +6302,25 @@
       <c r="C10" s="1">
         <v>2</v>
       </c>
-      <c r="D10" s="6">
-        <v>44427</v>
-      </c>
-      <c r="E10" s="6">
-        <f t="shared" si="0"/>
-        <v>45888</v>
-      </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>48</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H10">
         <v>112665</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="7">
         <f>VLOOKUP(G10,exchangeRate!$B$2:$D$13,3,FALSE)*H10</f>
         <v>2647627500</v>
       </c>
-      <c r="J10" s="7">
-        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G10,interestRate!$D:$D,Loan!F10,interestRate!$E:$E,Loan!L10)</f>
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>86</v>
+      <c r="J10" s="6">
+        <f>IF(K10="LOCKED",0,SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G10,interestRate!$D:$D,Loan!F10,interestRate!$E:$E,Loan!L10))</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>224</v>
       </c>
       <c r="L10" t="str">
         <f>VLOOKUP(B10,Customer!$A$2:$F$26,6)</f>
@@ -6239,31 +6337,31 @@
       <c r="C11" s="1">
         <v>3</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>43790</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <f t="shared" si="0"/>
         <v>51095</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>240</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H11">
         <v>908493</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="7">
         <f>VLOOKUP(G11,exchangeRate!$B$2:$D$13,3,FALSE)*H11</f>
         <v>21349585500</v>
       </c>
-      <c r="J11" s="7">
-        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G11,interestRate!$D:$D,Loan!F11,interestRate!$E:$E,Loan!L11)</f>
+      <c r="J11" s="6">
+        <f>IF(K11="LOCKED",0,SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G11,interestRate!$D:$D,Loan!F11,interestRate!$E:$E,Loan!L11))</f>
         <v>4.200000000000001E-2</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="4" t="s">
         <v>86</v>
       </c>
       <c r="L11" t="str">
@@ -6281,25 +6379,25 @@
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>60</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H12">
         <v>230145</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="7">
         <f>VLOOKUP(G12,exchangeRate!$B$2:$D$13,3,FALSE)*H12</f>
         <v>5408407500</v>
       </c>
-      <c r="J12" s="7">
-        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G12,interestRate!$D:$D,Loan!F12,interestRate!$E:$E,Loan!L12)</f>
+      <c r="J12" s="6">
+        <f>IF(K12="LOCKED",0,SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G12,interestRate!$D:$D,Loan!F12,interestRate!$E:$E,Loan!L12))</f>
         <v>0</v>
       </c>
-      <c r="K12" s="13" t="s">
-        <v>212</v>
+      <c r="K12" s="15" t="s">
+        <v>224</v>
       </c>
       <c r="L12" t="str">
         <f>VLOOKUP(B12,Customer!$A$2:$F$26,6)</f>
@@ -6316,31 +6414,31 @@
       <c r="C13" s="1">
         <v>2</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>43792</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <f t="shared" si="0"/>
         <v>43884</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <v>3</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H13">
         <v>530446</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="7">
         <f>VLOOKUP(G13,exchangeRate!$B$2:$D$13,3,FALSE)*H13</f>
         <v>12465481000</v>
       </c>
-      <c r="J13" s="7">
-        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G13,interestRate!$D:$D,Loan!F13,interestRate!$E:$E,Loan!L13)</f>
+      <c r="J13" s="6">
+        <f>IF(K13="LOCKED",0,SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G13,interestRate!$D:$D,Loan!F13,interestRate!$E:$E,Loan!L13))</f>
         <v>0.03</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="4" t="s">
         <v>86</v>
       </c>
       <c r="L13" t="str">
@@ -6358,31 +6456,31 @@
       <c r="C14" s="1">
         <v>3</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>44836</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <f t="shared" si="0"/>
         <v>52141</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <v>240</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="8">
+      <c r="G14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="7">
         <v>39000000000</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="7">
         <f>VLOOKUP(G14,exchangeRate!$B$2:$D$13,3,FALSE)*H14</f>
         <v>39000000000</v>
       </c>
-      <c r="J14" s="7">
-        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G14,interestRate!$D:$D,Loan!F14,interestRate!$E:$E,Loan!L14)</f>
+      <c r="J14" s="6">
+        <f>IF(K14="LOCKED",0,SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G14,interestRate!$D:$D,Loan!F14,interestRate!$E:$E,Loan!L14))</f>
         <v>0.12800000000000003</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="4" t="s">
         <v>86</v>
       </c>
       <c r="L14" t="str">
@@ -6400,31 +6498,31 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>44615</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <f t="shared" si="0"/>
         <v>55572</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <v>360</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H15" s="8">
+      <c r="G15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="7">
         <v>48000000000</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="7">
         <f>VLOOKUP(G15,exchangeRate!$B$2:$D$13,3,FALSE)*H15</f>
         <v>48000000000</v>
       </c>
-      <c r="J15" s="7">
-        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G15,interestRate!$D:$D,Loan!F15,interestRate!$E:$E,Loan!L15)</f>
+      <c r="J15" s="6">
+        <f>IF(K15="LOCKED",0,SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G15,interestRate!$D:$D,Loan!F15,interestRate!$E:$E,Loan!L15))</f>
         <v>0.13700000000000004</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="4" t="s">
         <v>86</v>
       </c>
       <c r="L15" t="str">
@@ -6442,31 +6540,31 @@
       <c r="C16" s="1">
         <v>2</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>44700</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <f t="shared" si="0"/>
         <v>48353</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <v>120</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H16" s="8">
+      <c r="G16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="7">
         <v>31000000000</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="7">
         <f>VLOOKUP(G16,exchangeRate!$B$2:$D$13,3,FALSE)*H16</f>
         <v>31000000000</v>
       </c>
-      <c r="J16" s="7">
-        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G16,interestRate!$D:$D,Loan!F16,interestRate!$E:$E,Loan!L16)</f>
+      <c r="J16" s="6">
+        <f>IF(K16="LOCKED",0,SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G16,interestRate!$D:$D,Loan!F16,interestRate!$E:$E,Loan!L16))</f>
         <v>0.13400000000000004</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="4" t="s">
         <v>86</v>
       </c>
       <c r="L16" t="str">
@@ -6484,31 +6582,31 @@
       <c r="C17" s="1">
         <v>3</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>44306</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <f t="shared" si="0"/>
         <v>44671</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="7">
         <v>12</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H17" s="8">
+      <c r="G17" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="7">
         <v>42000000000</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="7">
         <f>VLOOKUP(G17,exchangeRate!$B$2:$D$13,3,FALSE)*H17</f>
         <v>42000000000</v>
       </c>
-      <c r="J17" s="7">
-        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G17,interestRate!$D:$D,Loan!F17,interestRate!$E:$E,Loan!L17)</f>
+      <c r="J17" s="6">
+        <f>IF(K17="LOCKED",0,SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G17,interestRate!$D:$D,Loan!F17,interestRate!$E:$E,Loan!L17))</f>
         <v>9.2000000000000012E-2</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="4" t="s">
         <v>86</v>
       </c>
       <c r="L17" t="str">
@@ -6526,25 +6624,25 @@
       <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
         <v>15</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H18" s="8">
+      <c r="G18" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" s="7">
         <v>45000000000</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="7">
         <f>VLOOKUP(G18,exchangeRate!$B$2:$D$13,3,FALSE)*H18</f>
         <v>45000000000</v>
       </c>
-      <c r="J18" s="7">
-        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G18,interestRate!$D:$D,Loan!F18,interestRate!$E:$E,Loan!L18)</f>
+      <c r="J18" s="6">
+        <f>IF(K18="LOCKED",0,SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G18,interestRate!$D:$D,Loan!F18,interestRate!$E:$E,Loan!L18))</f>
         <v>0</v>
       </c>
-      <c r="K18" s="13" t="s">
-        <v>212</v>
+      <c r="K18" s="15" t="s">
+        <v>224</v>
       </c>
       <c r="L18" t="str">
         <f>VLOOKUP(B18,Customer!$A$2:$F$26,6)</f>
@@ -6561,31 +6659,31 @@
       <c r="C19" s="1">
         <v>2</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>44175</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <f t="shared" si="0"/>
         <v>44905</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="7">
         <v>24</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H19" s="8">
+      <c r="G19" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19" s="7">
         <v>19000000000</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="7">
         <f>VLOOKUP(G19,exchangeRate!$B$2:$D$13,3,FALSE)*H19</f>
         <v>19000000000</v>
       </c>
-      <c r="J19" s="7">
-        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G19,interestRate!$D:$D,Loan!F19,interestRate!$E:$E,Loan!L19)</f>
+      <c r="J19" s="6">
+        <f>IF(K19="LOCKED",0,SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G19,interestRate!$D:$D,Loan!F19,interestRate!$E:$E,Loan!L19))</f>
         <v>0.10400000000000002</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="K19" s="4" t="s">
         <v>86</v>
       </c>
       <c r="L19" t="str">
@@ -6597,37 +6695,37 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>1</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>44246</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <f t="shared" si="0"/>
         <v>45341</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="7">
         <v>36</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H20" s="8">
+      <c r="G20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20" s="7">
         <v>31000000000</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="7">
         <f>VLOOKUP(G20,exchangeRate!$B$2:$D$13,3,FALSE)*H20</f>
         <v>31000000000</v>
       </c>
-      <c r="J20" s="7">
-        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G20,interestRate!$D:$D,Loan!F20,interestRate!$E:$E,Loan!L20)</f>
+      <c r="J20" s="6">
+        <f>IF(K20="LOCKED",0,SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G20,interestRate!$D:$D,Loan!F20,interestRate!$E:$E,Loan!L20))</f>
         <v>0.10800000000000003</v>
       </c>
-      <c r="K20" s="5" t="s">
+      <c r="K20" s="4" t="s">
         <v>86</v>
       </c>
       <c r="L20" t="str">
@@ -6639,34 +6737,34 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>2</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>44814</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <f t="shared" si="0"/>
         <v>46275</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="7">
         <v>48</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H21" s="8">
+      <c r="G21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="7">
         <v>2000000000</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="7">
         <f>VLOOKUP(G21,exchangeRate!$B$2:$D$13,3,FALSE)*H21</f>
         <v>2000000000</v>
       </c>
-      <c r="J21" s="7">
-        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G21,interestRate!$D:$D,Loan!F21,interestRate!$E:$E,Loan!L21)</f>
+      <c r="J21" s="6">
+        <f>IF(K21="LOCKED",0,SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G21,interestRate!$D:$D,Loan!F21,interestRate!$E:$E,Loan!L21))</f>
         <v>0.11700000000000003</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="K21" s="4" t="s">
         <v>86</v>
       </c>
       <c r="L21" t="str">
@@ -6683,7 +6781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB35AC3-6DBB-4728-A5E8-FCDA1B812037}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -6696,44 +6794,44 @@
     <col min="5" max="5" width="11.265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.265625" customWidth="1"/>
     <col min="7" max="7" width="7.46484375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.3984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.3984375" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>106</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>80</v>
       </c>
     </row>
@@ -6747,30 +6845,30 @@
       <c r="C2">
         <v>2</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>44855</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <f>DATE(YEAR(D2),MONTH(D2)+F2,DAY(D2))</f>
         <v>45403</v>
       </c>
       <c r="F2">
         <v>18</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H2" s="8">
+      <c r="G2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="7">
         <v>300000000</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <v>300000000</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F2,interestRate!$B:$B,Saving!G2)</f>
         <v>6.5000000000000016E-2</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6784,30 +6882,30 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>44846</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <f t="shared" ref="E3:E41" si="0">DATE(YEAR(D3),MONTH(D3)+F3,DAY(D3))</f>
         <v>45942</v>
       </c>
       <c r="F3">
         <v>36</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H3" s="8">
+      <c r="G3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="7">
         <v>1000000000</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <v>1000000000</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F3,interestRate!$B:$B,Saving!G3)</f>
         <v>7.1000000000000021E-2</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6821,30 +6919,30 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>44974</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <f t="shared" si="0"/>
         <v>45339</v>
       </c>
       <c r="F4">
         <v>12</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H4" s="8">
+      <c r="G4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="7">
         <v>1400000000</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <v>1400000000</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F4,interestRate!$B:$B,Saving!G4)</f>
         <v>5.9000000000000011E-2</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6858,30 +6956,30 @@
       <c r="C5">
         <v>3</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>44837</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <f t="shared" si="0"/>
         <v>45933</v>
       </c>
       <c r="F5">
         <v>36</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H5" s="8">
+      <c r="G5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="7">
         <v>3800000000</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <v>3800000000</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F5,interestRate!$B:$B,Saving!G5)</f>
         <v>7.1000000000000021E-2</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6895,30 +6993,30 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>44889</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <f t="shared" si="0"/>
         <v>45254</v>
       </c>
       <c r="F6">
         <v>12</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" s="8">
+      <c r="G6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="7">
         <v>3000000000</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="7">
         <v>3000000000</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F6,interestRate!$B:$B,Saving!G6)</f>
         <v>5.9000000000000011E-2</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6932,30 +7030,30 @@
       <c r="C7">
         <v>3</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>44894</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <f t="shared" si="0"/>
         <v>45990</v>
       </c>
       <c r="F7">
         <v>36</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H7" s="8">
+      <c r="G7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="7">
         <v>1100000000</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <v>1100000000</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F7,interestRate!$B:$B,Saving!G7)</f>
         <v>7.1000000000000021E-2</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6969,30 +7067,30 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>44835</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <f t="shared" si="0"/>
         <v>45108</v>
       </c>
       <c r="F8">
         <v>9</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H8" s="8">
+      <c r="G8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="7">
         <v>62887699999.999992</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="7">
         <v>62887699999.999992</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F8,interestRate!$B:$B,Saving!G8)</f>
         <v>5.6000000000000008E-2</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7006,30 +7104,30 @@
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>45043</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <f t="shared" si="0"/>
         <v>45500</v>
       </c>
       <c r="F9">
         <v>15</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H9" s="8">
+      <c r="G9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="7">
         <v>90481200000</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="7">
         <v>90481200000</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F9,interestRate!$B:$B,Saving!G9)</f>
         <v>6.2000000000000013E-2</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7043,30 +7141,30 @@
       <c r="C10">
         <v>3</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>44875</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <f t="shared" si="0"/>
         <v>45240</v>
       </c>
       <c r="F10">
         <v>12</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" s="8">
+      <c r="G10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="7">
         <v>11266500000</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="7">
         <v>11266500000</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F10,interestRate!$B:$B,Saving!G10)</f>
         <v>5.9000000000000011E-2</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7080,30 +7178,30 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>44857</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <f t="shared" si="0"/>
         <v>45130</v>
       </c>
       <c r="F11">
         <v>9</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H11" s="8">
+      <c r="G11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="7">
         <v>90849300000</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="7">
         <v>90849300000</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F11,interestRate!$B:$B,Saving!G11)</f>
         <v>5.6000000000000008E-2</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7117,30 +7215,30 @@
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>44953</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <f t="shared" si="0"/>
         <v>45226</v>
       </c>
       <c r="F12">
         <v>9</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H12" s="8">
+      <c r="G12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="7">
         <v>23014500000</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="7">
         <v>23014500000</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F12,interestRate!$B:$B,Saving!G12)</f>
         <v>5.6000000000000008E-2</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7154,30 +7252,30 @@
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>45029</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <f t="shared" si="0"/>
         <v>45486</v>
       </c>
       <c r="F13">
         <v>15</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" s="8">
+      <c r="G13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="7">
         <v>53044600000</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="7">
         <v>53044600000</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F13,interestRate!$B:$B,Saving!G13)</f>
         <v>6.2000000000000013E-2</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7191,30 +7289,30 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>44942</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <f t="shared" si="0"/>
         <v>46038</v>
       </c>
       <c r="F14">
         <v>36</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="8">
+      <c r="G14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="7">
         <v>3900000000</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="7">
         <v>3900000000</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F14,interestRate!$B:$B,Saving!G14)</f>
         <v>7.1000000000000021E-2</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7228,30 +7326,30 @@
       <c r="C15">
         <v>2</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>45006</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <f t="shared" si="0"/>
         <v>46833</v>
       </c>
       <c r="F15">
         <v>60</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H15" s="8">
+      <c r="G15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="7">
         <v>4800000000</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="7">
         <v>4800000000</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F15,interestRate!$B:$B,Saving!G15)</f>
         <v>7.7000000000000027E-2</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7265,30 +7363,30 @@
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>44979</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <f t="shared" si="0"/>
         <v>45252</v>
       </c>
       <c r="F16">
         <v>9</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H16" s="8">
+      <c r="G16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="7">
         <v>3100000000</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="7">
         <v>3100000000</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F16,interestRate!$B:$B,Saving!G16)</f>
         <v>5.6000000000000008E-2</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7302,30 +7400,30 @@
       <c r="C17">
         <v>3</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>44962</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <f t="shared" si="0"/>
         <v>45693</v>
       </c>
       <c r="F17">
         <v>24</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H17" s="8">
+      <c r="G17" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="7">
         <v>4200000000</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="7">
         <v>4200000000</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F17,interestRate!$B:$B,Saving!G17)</f>
         <v>6.8000000000000019E-2</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7339,30 +7437,30 @@
       <c r="C18">
         <v>3</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>45025</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <f t="shared" si="0"/>
         <v>45574</v>
       </c>
       <c r="F18">
         <v>18</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H18" s="8">
+      <c r="G18" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" s="7">
         <v>4500000000</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="7">
         <v>4500000000</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F18,interestRate!$B:$B,Saving!G18)</f>
         <v>6.5000000000000016E-2</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7376,30 +7474,30 @@
       <c r="C19">
         <v>3</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>44872</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <f t="shared" si="0"/>
         <v>45237</v>
       </c>
       <c r="F19">
         <v>12</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H19" s="8">
+      <c r="G19" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19" s="7">
         <v>1900000000</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="7">
         <v>1900000000</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F19,interestRate!$B:$B,Saving!G19)</f>
         <v>5.9000000000000011E-2</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="K19" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7413,30 +7511,30 @@
       <c r="C20">
         <v>2</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>44997</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <f t="shared" si="0"/>
         <v>46458</v>
       </c>
       <c r="F20">
         <v>48</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H20" s="8">
+      <c r="G20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20" s="7">
         <v>3100000000</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="7">
         <v>3100000000</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F20,interestRate!$B:$B,Saving!G20)</f>
         <v>7.4000000000000024E-2</v>
       </c>
-      <c r="K20" s="5" t="s">
+      <c r="K20" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7450,30 +7548,30 @@
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>44879</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <f t="shared" si="0"/>
         <v>46340</v>
       </c>
       <c r="F21">
         <v>48</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H21" s="8">
+      <c r="G21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="7">
         <v>17000000000</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="7">
         <v>17000000000</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F21,interestRate!$B:$B,Saving!G21)</f>
         <v>7.4000000000000024E-2</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="K21" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7487,30 +7585,30 @@
       <c r="C22">
         <v>1</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>44912</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <f t="shared" si="0"/>
         <v>46373</v>
       </c>
       <c r="F22">
         <v>48</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H22" s="8">
+      <c r="G22" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H22" s="7">
         <v>1500000000</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="7">
         <v>1500000000</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F22,interestRate!$B:$B,Saving!G22)</f>
         <v>7.4000000000000024E-2</v>
       </c>
-      <c r="K22" s="5" t="s">
+      <c r="K22" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7524,30 +7622,30 @@
       <c r="C23">
         <v>3</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>44901</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <f t="shared" si="0"/>
         <v>46362</v>
       </c>
       <c r="F23">
         <v>48</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H23" s="8">
+      <c r="G23" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" s="7">
         <v>15000000000</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="7">
         <v>15000000000</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F23,interestRate!$B:$B,Saving!G23)</f>
         <v>7.4000000000000024E-2</v>
       </c>
-      <c r="K23" s="5" t="s">
+      <c r="K23" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7561,30 +7659,30 @@
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>44997</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <f t="shared" si="0"/>
         <v>46093</v>
       </c>
       <c r="F24">
         <v>36</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H24" s="8">
+      <c r="G24" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" s="7">
         <v>2000000000</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="7">
         <v>2000000000</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F24,interestRate!$B:$B,Saving!G24)</f>
         <v>7.1000000000000021E-2</v>
       </c>
-      <c r="K24" s="5" t="s">
+      <c r="K24" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7598,30 +7696,30 @@
       <c r="C25">
         <v>2</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>44918</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <f t="shared" si="0"/>
         <v>46744</v>
       </c>
       <c r="F25">
         <v>60</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H25" s="8">
+      <c r="G25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H25" s="7">
         <v>20000000000</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="7">
         <v>20000000000</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F25,interestRate!$B:$B,Saving!G25)</f>
         <v>7.7000000000000027E-2</v>
       </c>
-      <c r="K25" s="5" t="s">
+      <c r="K25" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7635,30 +7733,30 @@
       <c r="C26">
         <v>3</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <v>44982</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <f t="shared" si="0"/>
         <v>46078</v>
       </c>
       <c r="F26">
         <v>36</v>
       </c>
-      <c r="G26" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H26" s="8">
+      <c r="G26" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H26" s="7">
         <v>6000000000</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="7">
         <v>6000000000</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F26,interestRate!$B:$B,Saving!G26)</f>
         <v>7.1000000000000021E-2</v>
       </c>
-      <c r="K26" s="5" t="s">
+      <c r="K26" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7672,30 +7770,30 @@
       <c r="C27">
         <v>3</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <v>44927</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <f t="shared" si="0"/>
         <v>45658</v>
       </c>
       <c r="F27">
         <v>24</v>
       </c>
-      <c r="G27" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H27" s="8">
+      <c r="G27" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H27" s="7">
         <v>200000000</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="7">
         <v>200000000</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F27,interestRate!$B:$B,Saving!G27)</f>
         <v>6.8000000000000019E-2</v>
       </c>
-      <c r="K27" s="5" t="s">
+      <c r="K27" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7709,30 +7807,30 @@
       <c r="C28">
         <v>1</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <v>44846</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <f t="shared" si="0"/>
         <v>45211</v>
       </c>
       <c r="F28">
         <v>12</v>
       </c>
-      <c r="G28" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H28" s="8">
+      <c r="G28" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H28" s="7">
         <v>8500000000</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I28" s="7">
         <v>8500000000</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F28,interestRate!$B:$B,Saving!G28)</f>
         <v>5.9000000000000011E-2</v>
       </c>
-      <c r="K28" s="5" t="s">
+      <c r="K28" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7746,30 +7844,30 @@
       <c r="C29">
         <v>3</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="5">
         <v>44970</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <f t="shared" si="0"/>
         <v>45517</v>
       </c>
       <c r="F29">
         <v>18</v>
       </c>
-      <c r="G29" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H29" s="8">
+      <c r="G29" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H29" s="7">
         <v>6000000000</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="7">
         <v>6000000000</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F29,interestRate!$B:$B,Saving!G29)</f>
         <v>6.5000000000000016E-2</v>
       </c>
-      <c r="K29" s="5" t="s">
+      <c r="K29" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7783,30 +7881,30 @@
       <c r="C30">
         <v>3</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="5">
         <v>44884</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="5">
         <f t="shared" si="0"/>
         <v>45249</v>
       </c>
       <c r="F30">
         <v>12</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="7">
         <v>200000</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I30" s="7">
         <v>4700000000</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J30" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F30,interestRate!$B:$B,Saving!G30)</f>
         <v>0</v>
       </c>
-      <c r="K30" s="5" t="s">
+      <c r="K30" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7820,30 +7918,30 @@
       <c r="C31">
         <v>3</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="5">
         <v>44906</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="5">
         <f t="shared" si="0"/>
         <v>45271</v>
       </c>
       <c r="F31">
         <v>12</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31" s="7">
         <v>200001</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I31" s="7">
         <v>4700023500</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J31" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F31,interestRate!$B:$B,Saving!G31)</f>
         <v>0</v>
       </c>
-      <c r="K31" s="5" t="s">
+      <c r="K31" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7857,30 +7955,30 @@
       <c r="C32">
         <v>1</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="5">
         <v>44849</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="5">
         <f t="shared" si="0"/>
         <v>45031</v>
       </c>
       <c r="F32">
         <v>6</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H32" s="7">
         <v>200002</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I32" s="7">
         <v>4700047000</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J32" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F32,interestRate!$B:$B,Saving!G32)</f>
         <v>0</v>
       </c>
-      <c r="K32" s="5" t="s">
+      <c r="K32" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7894,30 +7992,30 @@
       <c r="C33">
         <v>2</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="5">
         <v>44887</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="5">
         <f t="shared" si="0"/>
         <v>46348</v>
       </c>
       <c r="F33">
         <v>48</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H33" s="7">
         <v>200003</v>
       </c>
-      <c r="I33" s="8">
+      <c r="I33" s="7">
         <v>4700070500</v>
       </c>
-      <c r="J33" s="7">
+      <c r="J33" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F33,interestRate!$B:$B,Saving!G33)</f>
         <v>0</v>
       </c>
-      <c r="K33" s="5" t="s">
+      <c r="K33" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7931,30 +8029,30 @@
       <c r="C34">
         <v>3</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="5">
         <v>45029</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="5">
         <f t="shared" si="0"/>
         <v>45486</v>
       </c>
       <c r="F34">
         <v>15</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H34" s="7">
         <v>200004</v>
       </c>
-      <c r="I34" s="8">
+      <c r="I34" s="7">
         <v>4700094000</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J34" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F34,interestRate!$B:$B,Saving!G34)</f>
         <v>0</v>
       </c>
-      <c r="K34" s="5" t="s">
+      <c r="K34" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7968,30 +8066,30 @@
       <c r="C35">
         <v>1</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="5">
         <v>44841</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="5">
         <f t="shared" si="0"/>
         <v>45023</v>
       </c>
       <c r="F35">
         <v>6</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H35" s="8">
+      <c r="H35" s="7">
         <v>200005</v>
       </c>
-      <c r="I35" s="8">
+      <c r="I35" s="7">
         <v>4700117500</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J35" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F35,interestRate!$B:$B,Saving!G35)</f>
         <v>0</v>
       </c>
-      <c r="K35" s="5" t="s">
+      <c r="K35" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -8005,30 +8103,30 @@
       <c r="C36">
         <v>2</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="5">
         <v>45026</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="5">
         <f t="shared" si="0"/>
         <v>45117</v>
       </c>
       <c r="F36">
         <v>3</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H36" s="8">
+      <c r="H36" s="7">
         <v>200006</v>
       </c>
-      <c r="I36" s="8">
+      <c r="I36" s="7">
         <v>4700141000</v>
       </c>
-      <c r="J36" s="7">
+      <c r="J36" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F36,interestRate!$B:$B,Saving!G36)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="5" t="s">
+      <c r="K36" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -8042,30 +8140,30 @@
       <c r="C37">
         <v>1</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="5">
         <v>45024</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="5">
         <f t="shared" si="0"/>
         <v>45755</v>
       </c>
       <c r="F37">
         <v>24</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H37" s="8">
+      <c r="H37" s="7">
         <v>200007</v>
       </c>
-      <c r="I37" s="8">
+      <c r="I37" s="7">
         <v>4700164500</v>
       </c>
-      <c r="J37" s="7">
+      <c r="J37" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F37,interestRate!$B:$B,Saving!G37)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="5" t="s">
+      <c r="K37" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -8079,30 +8177,30 @@
       <c r="C38">
         <v>3</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="5">
         <v>44859</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="5">
         <f t="shared" si="0"/>
         <v>45955</v>
       </c>
       <c r="F38">
         <v>36</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H38" s="8">
+      <c r="H38" s="7">
         <v>200008</v>
       </c>
-      <c r="I38" s="8">
+      <c r="I38" s="7">
         <v>4700188000</v>
       </c>
-      <c r="J38" s="7">
+      <c r="J38" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F38,interestRate!$B:$B,Saving!G38)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="5" t="s">
+      <c r="K38" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -8116,30 +8214,30 @@
       <c r="C39">
         <v>3</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="5">
         <v>45023</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="5">
         <f t="shared" si="0"/>
         <v>46484</v>
       </c>
       <c r="F39">
         <v>48</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G39" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H39" s="8">
+      <c r="H39" s="7">
         <v>200009</v>
       </c>
-      <c r="I39" s="8">
+      <c r="I39" s="7">
         <v>4700211500</v>
       </c>
-      <c r="J39" s="7">
+      <c r="J39" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F39,interestRate!$B:$B,Saving!G39)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="5" t="s">
+      <c r="K39" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -8153,30 +8251,30 @@
       <c r="C40">
         <v>3</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="5">
         <v>45034</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="5">
         <f t="shared" si="0"/>
         <v>46861</v>
       </c>
       <c r="F40">
         <v>60</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H40" s="8">
+      <c r="H40" s="7">
         <v>200010</v>
       </c>
-      <c r="I40" s="8">
+      <c r="I40" s="7">
         <v>4700235000</v>
       </c>
-      <c r="J40" s="7">
+      <c r="J40" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F40,interestRate!$B:$B,Saving!G40)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="5" t="s">
+      <c r="K40" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -8190,30 +8288,30 @@
       <c r="C41">
         <v>2</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="5">
         <v>44854</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="5">
         <f t="shared" si="0"/>
         <v>45585</v>
       </c>
       <c r="F41">
         <v>24</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H41" s="8">
+      <c r="H41" s="7">
         <v>200011</v>
       </c>
-      <c r="I41" s="8">
+      <c r="I41" s="7">
         <v>4700258500</v>
       </c>
-      <c r="J41" s="7">
+      <c r="J41" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F41,interestRate!$B:$B,Saving!G41)</f>
         <v>0</v>
       </c>
-      <c r="K41" s="5" t="s">
+      <c r="K41" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -8227,7 +8325,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8239,27 +8337,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="A2" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D2">
@@ -8267,13 +8365,13 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D3">
@@ -8281,13 +8379,13 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="A4" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D4">
@@ -8295,13 +8393,13 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D5">
@@ -8309,13 +8407,13 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="A6" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D6">
@@ -8323,13 +8421,13 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B7" s="15" t="s">
+      <c r="A7" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D7">
@@ -8337,13 +8435,13 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="A8" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D8">
@@ -8351,13 +8449,13 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="A9" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D9">
@@ -8365,13 +8463,13 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="A10" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D10">
@@ -8379,13 +8477,13 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="A11" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D11">
@@ -8393,13 +8491,13 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="A12" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D12">
@@ -8407,13 +8505,13 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="A13" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D13">
@@ -8429,8 +8527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146A3E06-B983-43B3-A43F-658D5B96467C}">
   <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="H116" sqref="H116"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8440,12 +8538,12 @@
     <col min="3" max="3" width="12.796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.53125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.59765625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="14" t="s">
-        <v>216</v>
+      <c r="A1" s="13" t="s">
+        <v>215</v>
       </c>
       <c r="B1" t="s">
         <v>76</v>
@@ -8459,12 +8557,12 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>44926</v>
       </c>
       <c r="B2" t="s">
@@ -8479,12 +8577,12 @@
       <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>0.08</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>44926</v>
       </c>
       <c r="B3" t="s">
@@ -8499,13 +8597,13 @@
       <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <f t="shared" ref="F3:F15" si="0">F2+0.4%</f>
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>44926</v>
       </c>
       <c r="B4" t="s">
@@ -8520,13 +8618,13 @@
       <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <f t="shared" si="0"/>
         <v>8.8000000000000009E-2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>44926</v>
       </c>
       <c r="B5" t="s">
@@ -8541,13 +8639,13 @@
       <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <f t="shared" si="0"/>
         <v>9.2000000000000012E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>44926</v>
       </c>
       <c r="B6" t="s">
@@ -8562,13 +8660,13 @@
       <c r="E6" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <f t="shared" si="0"/>
         <v>9.6000000000000016E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>44926</v>
       </c>
       <c r="B7" t="s">
@@ -8583,13 +8681,13 @@
       <c r="E7" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <f t="shared" si="0"/>
         <v>0.10000000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>44926</v>
       </c>
       <c r="B8" t="s">
@@ -8604,13 +8702,13 @@
       <c r="E8" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <f t="shared" si="0"/>
         <v>0.10400000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>44926</v>
       </c>
       <c r="B9" t="s">
@@ -8625,13 +8723,13 @@
       <c r="E9" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <f t="shared" si="0"/>
         <v>0.10800000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>44926</v>
       </c>
       <c r="B10" t="s">
@@ -8646,13 +8744,13 @@
       <c r="E10" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <f t="shared" si="0"/>
         <v>0.11200000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>44926</v>
       </c>
       <c r="B11" t="s">
@@ -8667,13 +8765,13 @@
       <c r="E11" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <f t="shared" si="0"/>
         <v>0.11600000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>44926</v>
       </c>
       <c r="B12" t="s">
@@ -8688,13 +8786,13 @@
       <c r="E12" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <f t="shared" si="0"/>
         <v>0.12000000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>44926</v>
       </c>
       <c r="B13" t="s">
@@ -8709,13 +8807,13 @@
       <c r="E13" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <f t="shared" si="0"/>
         <v>0.12400000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>44926</v>
       </c>
       <c r="B14" t="s">
@@ -8730,13 +8828,13 @@
       <c r="E14" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <f t="shared" si="0"/>
         <v>0.12800000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>44926</v>
       </c>
       <c r="B15" t="s">
@@ -8751,13 +8849,13 @@
       <c r="E15" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <f t="shared" si="0"/>
         <v>0.13200000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>44926</v>
       </c>
       <c r="B16" t="s">
@@ -8772,13 +8870,13 @@
       <c r="E16" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <f t="shared" ref="F16:F43" si="1">F2+0.5%</f>
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>44926</v>
       </c>
       <c r="B17" t="s">
@@ -8793,13 +8891,13 @@
       <c r="E17" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <f t="shared" si="1"/>
         <v>8.900000000000001E-2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>44926</v>
       </c>
       <c r="B18" t="s">
@@ -8814,13 +8912,13 @@
       <c r="E18" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <f t="shared" si="1"/>
         <v>9.3000000000000013E-2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>44926</v>
       </c>
       <c r="B19" t="s">
@@ -8835,13 +8933,13 @@
       <c r="E19" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="6">
         <f t="shared" si="1"/>
         <v>9.7000000000000017E-2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>44926</v>
       </c>
       <c r="B20" t="s">
@@ -8856,13 +8954,13 @@
       <c r="E20" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="6">
         <f t="shared" si="1"/>
         <v>0.10100000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>44926</v>
       </c>
       <c r="B21" t="s">
@@ -8877,13 +8975,13 @@
       <c r="E21" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="6">
         <f t="shared" si="1"/>
         <v>0.10500000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>44926</v>
       </c>
       <c r="B22" t="s">
@@ -8898,13 +8996,13 @@
       <c r="E22" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="6">
         <f t="shared" si="1"/>
         <v>0.10900000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>44926</v>
       </c>
       <c r="B23" t="s">
@@ -8919,13 +9017,13 @@
       <c r="E23" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="6">
         <f t="shared" si="1"/>
         <v>0.11300000000000003</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>44926</v>
       </c>
       <c r="B24" t="s">
@@ -8940,13 +9038,13 @@
       <c r="E24" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="6">
         <f t="shared" si="1"/>
         <v>0.11700000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>44926</v>
       </c>
       <c r="B25" t="s">
@@ -8961,13 +9059,13 @@
       <c r="E25" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="6">
         <f t="shared" si="1"/>
         <v>0.12100000000000004</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" s="6">
+      <c r="A26" s="5">
         <v>44926</v>
       </c>
       <c r="B26" t="s">
@@ -8982,13 +9080,13 @@
       <c r="E26" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="6">
         <f t="shared" si="1"/>
         <v>0.12500000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A27" s="6">
+      <c r="A27" s="5">
         <v>44926</v>
       </c>
       <c r="B27" t="s">
@@ -9003,13 +9101,13 @@
       <c r="E27" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="6">
         <f t="shared" si="1"/>
         <v>0.12900000000000003</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A28" s="6">
+      <c r="A28" s="5">
         <v>44926</v>
       </c>
       <c r="B28" t="s">
@@ -9024,13 +9122,13 @@
       <c r="E28" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="6">
         <f t="shared" si="1"/>
         <v>0.13300000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A29" s="6">
+      <c r="A29" s="5">
         <v>44926</v>
       </c>
       <c r="B29" t="s">
@@ -9045,13 +9143,13 @@
       <c r="E29" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="6">
         <f t="shared" si="1"/>
         <v>0.13700000000000004</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A30" s="6">
+      <c r="A30" s="5">
         <v>44926</v>
       </c>
       <c r="B30" t="s">
@@ -9063,16 +9161,16 @@
       <c r="D30">
         <v>3</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="6">
         <f t="shared" si="1"/>
         <v>9.0000000000000011E-2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A31" s="6">
+      <c r="A31" s="5">
         <v>44926</v>
       </c>
       <c r="B31" t="s">
@@ -9084,16 +9182,16 @@
       <c r="D31">
         <v>6</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="6">
         <f t="shared" si="1"/>
         <v>9.4000000000000014E-2</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A32" s="6">
+      <c r="A32" s="5">
         <v>44926</v>
       </c>
       <c r="B32" t="s">
@@ -9105,16 +9203,16 @@
       <c r="D32">
         <v>9</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="6">
         <f t="shared" si="1"/>
         <v>9.8000000000000018E-2</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A33" s="6">
+      <c r="A33" s="5">
         <v>44926</v>
       </c>
       <c r="B33" t="s">
@@ -9126,16 +9224,16 @@
       <c r="D33">
         <v>12</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="6">
         <f t="shared" si="1"/>
         <v>0.10200000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A34" s="6">
+      <c r="A34" s="5">
         <v>44926</v>
       </c>
       <c r="B34" t="s">
@@ -9147,16 +9245,16 @@
       <c r="D34">
         <v>15</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="6">
         <f t="shared" si="1"/>
         <v>0.10600000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A35" s="6">
+      <c r="A35" s="5">
         <v>44926</v>
       </c>
       <c r="B35" t="s">
@@ -9168,16 +9266,16 @@
       <c r="D35">
         <v>18</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="6">
         <f t="shared" si="1"/>
         <v>0.11000000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A36" s="6">
+      <c r="A36" s="5">
         <v>44926</v>
       </c>
       <c r="B36" t="s">
@@ -9189,16 +9287,16 @@
       <c r="D36">
         <v>24</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="6">
         <f t="shared" si="1"/>
         <v>0.11400000000000003</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A37" s="6">
+      <c r="A37" s="5">
         <v>44926</v>
       </c>
       <c r="B37" t="s">
@@ -9210,16 +9308,16 @@
       <c r="D37">
         <v>36</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E37" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="6">
         <f t="shared" si="1"/>
         <v>0.11800000000000004</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A38" s="6">
+      <c r="A38" s="5">
         <v>44926</v>
       </c>
       <c r="B38" t="s">
@@ -9231,16 +9329,16 @@
       <c r="D38">
         <v>48</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="E38" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="6">
         <f t="shared" si="1"/>
         <v>0.12200000000000004</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A39" s="6">
+      <c r="A39" s="5">
         <v>44926</v>
       </c>
       <c r="B39" t="s">
@@ -9252,16 +9350,16 @@
       <c r="D39">
         <v>60</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="6">
         <f t="shared" si="1"/>
         <v>0.12600000000000003</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A40" s="6">
+      <c r="A40" s="5">
         <v>44926</v>
       </c>
       <c r="B40" t="s">
@@ -9273,16 +9371,16 @@
       <c r="D40">
         <v>84</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="E40" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="6">
         <f t="shared" si="1"/>
         <v>0.13000000000000003</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A41" s="6">
+      <c r="A41" s="5">
         <v>44926</v>
       </c>
       <c r="B41" t="s">
@@ -9294,16 +9392,16 @@
       <c r="D41">
         <v>120</v>
       </c>
-      <c r="E41" s="13" t="s">
+      <c r="E41" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="6">
         <f t="shared" si="1"/>
         <v>0.13400000000000004</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A42" s="6">
+      <c r="A42" s="5">
         <v>44926</v>
       </c>
       <c r="B42" t="s">
@@ -9315,16 +9413,16 @@
       <c r="D42">
         <v>240</v>
       </c>
-      <c r="E42" s="13" t="s">
+      <c r="E42" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="6">
         <f t="shared" si="1"/>
         <v>0.13800000000000004</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A43" s="6">
+      <c r="A43" s="5">
         <v>44926</v>
       </c>
       <c r="B43" t="s">
@@ -9336,19 +9434,19 @@
       <c r="D43">
         <v>360</v>
       </c>
-      <c r="E43" s="13" t="s">
+      <c r="E43" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="6">
         <f t="shared" si="1"/>
         <v>0.14200000000000004</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A44" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B44" s="13" t="s">
+      <c r="A44" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B44" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C44" t="s">
@@ -9360,15 +9458,15 @@
       <c r="E44" t="s">
         <v>6</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="6">
         <v>0.03</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A45" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B45" s="13" t="s">
+      <c r="A45" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B45" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C45" t="s">
@@ -9380,16 +9478,16 @@
       <c r="E45" t="s">
         <v>6</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="6">
         <f t="shared" ref="F45:F57" si="2">F44+0.1%</f>
         <v>3.1E-2</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A46" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B46" s="13" t="s">
+      <c r="A46" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B46" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C46" t="s">
@@ -9401,16 +9499,16 @@
       <c r="E46" t="s">
         <v>6</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="6">
         <f t="shared" si="2"/>
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A47" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B47" s="13" t="s">
+      <c r="A47" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B47" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C47" t="s">
@@ -9422,16 +9520,16 @@
       <c r="E47" t="s">
         <v>6</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="6">
         <f t="shared" si="2"/>
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A48" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B48" s="13" t="s">
+      <c r="A48" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B48" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C48" t="s">
@@ -9443,16 +9541,16 @@
       <c r="E48" t="s">
         <v>6</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48" s="6">
         <f t="shared" si="2"/>
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A49" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B49" s="13" t="s">
+      <c r="A49" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B49" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C49" t="s">
@@ -9464,16 +9562,16 @@
       <c r="E49" t="s">
         <v>6</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49" s="6">
         <f t="shared" si="2"/>
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A50" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B50" s="13" t="s">
+      <c r="A50" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B50" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C50" t="s">
@@ -9485,16 +9583,16 @@
       <c r="E50" t="s">
         <v>6</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50" s="6">
         <f t="shared" si="2"/>
         <v>3.6000000000000004E-2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A51" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B51" s="13" t="s">
+      <c r="A51" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B51" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C51" t="s">
@@ -9506,16 +9604,16 @@
       <c r="E51" t="s">
         <v>6</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F51" s="6">
         <f t="shared" si="2"/>
         <v>3.7000000000000005E-2</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A52" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B52" s="13" t="s">
+      <c r="A52" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B52" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C52" t="s">
@@ -9527,16 +9625,16 @@
       <c r="E52" t="s">
         <v>6</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F52" s="6">
         <f t="shared" si="2"/>
         <v>3.8000000000000006E-2</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A53" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B53" s="13" t="s">
+      <c r="A53" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B53" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C53" t="s">
@@ -9548,16 +9646,16 @@
       <c r="E53" t="s">
         <v>6</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53" s="6">
         <f t="shared" si="2"/>
         <v>3.9000000000000007E-2</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A54" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B54" s="13" t="s">
+      <c r="A54" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B54" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C54" t="s">
@@ -9569,16 +9667,16 @@
       <c r="E54" t="s">
         <v>6</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F54" s="6">
         <f t="shared" si="2"/>
         <v>4.0000000000000008E-2</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A55" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B55" s="13" t="s">
+      <c r="A55" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B55" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C55" t="s">
@@ -9590,16 +9688,16 @@
       <c r="E55" t="s">
         <v>6</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F55" s="6">
         <f t="shared" si="2"/>
         <v>4.1000000000000009E-2</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A56" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B56" s="13" t="s">
+      <c r="A56" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B56" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C56" t="s">
@@ -9611,16 +9709,16 @@
       <c r="E56" t="s">
         <v>6</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F56" s="6">
         <f t="shared" si="2"/>
         <v>4.200000000000001E-2</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A57" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B57" s="13" t="s">
+      <c r="A57" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B57" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C57" t="s">
@@ -9632,16 +9730,16 @@
       <c r="E57" t="s">
         <v>6</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F57" s="6">
         <f t="shared" si="2"/>
         <v>4.300000000000001E-2</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A58" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B58" s="13" t="s">
+      <c r="A58" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B58" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C58" t="s">
@@ -9653,16 +9751,16 @@
       <c r="E58" t="s">
         <v>9</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F58" s="6">
         <f t="shared" ref="F58:F85" si="3">F44+0.5%</f>
         <v>3.4999999999999996E-2</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A59" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B59" s="13" t="s">
+      <c r="A59" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B59" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C59" t="s">
@@ -9674,16 +9772,16 @@
       <c r="E59" t="s">
         <v>9</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59" s="6">
         <f t="shared" si="3"/>
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A60" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B60" s="13" t="s">
+      <c r="A60" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B60" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C60" t="s">
@@ -9695,16 +9793,16 @@
       <c r="E60" t="s">
         <v>9</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F60" s="6">
         <f t="shared" si="3"/>
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A61" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B61" s="13" t="s">
+      <c r="A61" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B61" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C61" t="s">
@@ -9716,16 +9814,16 @@
       <c r="E61" t="s">
         <v>9</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F61" s="6">
         <f t="shared" si="3"/>
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A62" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B62" s="13" t="s">
+      <c r="A62" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B62" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C62" t="s">
@@ -9737,16 +9835,16 @@
       <c r="E62" t="s">
         <v>9</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F62" s="6">
         <f t="shared" si="3"/>
         <v>3.9E-2</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A63" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B63" s="13" t="s">
+      <c r="A63" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B63" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C63" t="s">
@@ -9758,16 +9856,16 @@
       <c r="E63" t="s">
         <v>9</v>
       </c>
-      <c r="F63" s="7">
+      <c r="F63" s="6">
         <f t="shared" si="3"/>
         <v>0.04</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A64" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B64" s="13" t="s">
+      <c r="A64" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B64" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C64" t="s">
@@ -9779,16 +9877,16 @@
       <c r="E64" t="s">
         <v>9</v>
       </c>
-      <c r="F64" s="7">
+      <c r="F64" s="6">
         <f t="shared" si="3"/>
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A65" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B65" s="13" t="s">
+      <c r="A65" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B65" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C65" t="s">
@@ -9800,16 +9898,16 @@
       <c r="E65" t="s">
         <v>9</v>
       </c>
-      <c r="F65" s="7">
+      <c r="F65" s="6">
         <f t="shared" si="3"/>
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A66" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B66" s="13" t="s">
+      <c r="A66" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B66" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C66" t="s">
@@ -9821,16 +9919,16 @@
       <c r="E66" t="s">
         <v>9</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F66" s="6">
         <f t="shared" si="3"/>
         <v>4.3000000000000003E-2</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A67" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B67" s="13" t="s">
+      <c r="A67" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B67" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C67" t="s">
@@ -9842,16 +9940,16 @@
       <c r="E67" t="s">
         <v>9</v>
       </c>
-      <c r="F67" s="7">
+      <c r="F67" s="6">
         <f t="shared" si="3"/>
         <v>4.4000000000000004E-2</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A68" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B68" s="13" t="s">
+      <c r="A68" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B68" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C68" t="s">
@@ -9863,16 +9961,16 @@
       <c r="E68" t="s">
         <v>9</v>
       </c>
-      <c r="F68" s="7">
+      <c r="F68" s="6">
         <f t="shared" si="3"/>
         <v>4.5000000000000005E-2</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A69" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B69" s="13" t="s">
+      <c r="A69" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B69" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C69" t="s">
@@ -9884,16 +9982,16 @@
       <c r="E69" t="s">
         <v>9</v>
       </c>
-      <c r="F69" s="7">
+      <c r="F69" s="6">
         <f t="shared" si="3"/>
         <v>4.6000000000000006E-2</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A70" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B70" s="13" t="s">
+      <c r="A70" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B70" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C70" t="s">
@@ -9905,16 +10003,16 @@
       <c r="E70" t="s">
         <v>9</v>
       </c>
-      <c r="F70" s="7">
+      <c r="F70" s="6">
         <f t="shared" si="3"/>
         <v>4.7000000000000007E-2</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A71" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B71" s="13" t="s">
+      <c r="A71" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B71" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C71" t="s">
@@ -9926,16 +10024,16 @@
       <c r="E71" t="s">
         <v>9</v>
       </c>
-      <c r="F71" s="7">
+      <c r="F71" s="6">
         <f t="shared" si="3"/>
         <v>4.8000000000000008E-2</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A72" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B72" s="13" t="s">
+      <c r="A72" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B72" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C72" t="s">
@@ -9944,19 +10042,19 @@
       <c r="D72">
         <v>3</v>
       </c>
-      <c r="E72" s="13" t="s">
+      <c r="E72" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F72" s="7">
+      <c r="F72" s="6">
         <f t="shared" si="3"/>
         <v>3.9999999999999994E-2</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A73" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B73" s="13" t="s">
+      <c r="A73" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B73" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C73" t="s">
@@ -9965,19 +10063,19 @@
       <c r="D73">
         <v>6</v>
       </c>
-      <c r="E73" s="13" t="s">
+      <c r="E73" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F73" s="6">
         <f t="shared" si="3"/>
         <v>4.0999999999999995E-2</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A74" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B74" s="13" t="s">
+      <c r="A74" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B74" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C74" t="s">
@@ -9986,19 +10084,19 @@
       <c r="D74">
         <v>9</v>
       </c>
-      <c r="E74" s="13" t="s">
+      <c r="E74" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F74" s="6">
         <f t="shared" si="3"/>
         <v>4.1999999999999996E-2</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A75" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B75" s="13" t="s">
+      <c r="A75" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B75" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C75" t="s">
@@ -10007,19 +10105,19 @@
       <c r="D75">
         <v>12</v>
       </c>
-      <c r="E75" s="13" t="s">
+      <c r="E75" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F75" s="7">
+      <c r="F75" s="6">
         <f t="shared" si="3"/>
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A76" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B76" s="13" t="s">
+      <c r="A76" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B76" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C76" t="s">
@@ -10028,19 +10126,19 @@
       <c r="D76">
         <v>15</v>
       </c>
-      <c r="E76" s="13" t="s">
+      <c r="E76" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F76" s="7">
+      <c r="F76" s="6">
         <f t="shared" si="3"/>
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A77" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B77" s="13" t="s">
+      <c r="A77" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B77" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C77" t="s">
@@ -10049,19 +10147,19 @@
       <c r="D77">
         <v>18</v>
       </c>
-      <c r="E77" s="13" t="s">
+      <c r="E77" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F77" s="7">
+      <c r="F77" s="6">
         <f t="shared" si="3"/>
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A78" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B78" s="13" t="s">
+      <c r="A78" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B78" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C78" t="s">
@@ -10070,19 +10168,19 @@
       <c r="D78">
         <v>24</v>
       </c>
-      <c r="E78" s="13" t="s">
+      <c r="E78" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F78" s="7">
+      <c r="F78" s="6">
         <f t="shared" si="3"/>
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A79" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B79" s="13" t="s">
+      <c r="A79" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B79" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C79" t="s">
@@ -10091,19 +10189,19 @@
       <c r="D79">
         <v>36</v>
       </c>
-      <c r="E79" s="13" t="s">
+      <c r="E79" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F79" s="7">
+      <c r="F79" s="6">
         <f t="shared" si="3"/>
         <v>4.7E-2</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A80" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B80" s="13" t="s">
+      <c r="A80" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B80" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C80" t="s">
@@ -10112,19 +10210,19 @@
       <c r="D80">
         <v>48</v>
       </c>
-      <c r="E80" s="13" t="s">
+      <c r="E80" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F80" s="7">
+      <c r="F80" s="6">
         <f t="shared" si="3"/>
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A81" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B81" s="13" t="s">
+      <c r="A81" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B81" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C81" t="s">
@@ -10133,19 +10231,19 @@
       <c r="D81">
         <v>60</v>
       </c>
-      <c r="E81" s="13" t="s">
+      <c r="E81" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F81" s="7">
+      <c r="F81" s="6">
         <f t="shared" si="3"/>
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A82" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B82" s="13" t="s">
+      <c r="A82" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B82" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C82" t="s">
@@ -10154,19 +10252,19 @@
       <c r="D82">
         <v>84</v>
       </c>
-      <c r="E82" s="13" t="s">
+      <c r="E82" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F82" s="7">
+      <c r="F82" s="6">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A83" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B83" s="13" t="s">
+      <c r="A83" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B83" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C83" t="s">
@@ -10175,19 +10273,19 @@
       <c r="D83">
         <v>120</v>
       </c>
-      <c r="E83" s="13" t="s">
+      <c r="E83" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F83" s="7">
+      <c r="F83" s="6">
         <f t="shared" si="3"/>
         <v>5.1000000000000004E-2</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A84" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B84" s="13" t="s">
+      <c r="A84" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B84" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C84" t="s">
@@ -10196,19 +10294,19 @@
       <c r="D84">
         <v>240</v>
       </c>
-      <c r="E84" s="13" t="s">
+      <c r="E84" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F84" s="7">
+      <c r="F84" s="6">
         <f t="shared" si="3"/>
         <v>5.2000000000000005E-2</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A85" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B85" s="13" t="s">
+      <c r="A85" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B85" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C85" t="s">
@@ -10217,698 +10315,698 @@
       <c r="D85">
         <v>360</v>
       </c>
-      <c r="E85" s="13" t="s">
+      <c r="E85" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F85" s="7">
+      <c r="F85" s="6">
         <f t="shared" si="3"/>
         <v>5.3000000000000005E-2</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A86" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B86" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C86" s="13" t="s">
-        <v>213</v>
+      <c r="A86" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="D86">
         <v>3</v>
       </c>
-      <c r="F86" s="7">
+      <c r="F86" s="6">
         <v>0.05</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A87" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B87" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C87" s="13" t="s">
-        <v>213</v>
+      <c r="A87" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="D87">
         <v>6</v>
       </c>
-      <c r="F87" s="7">
+      <c r="F87" s="6">
         <f>F86+0.3%</f>
         <v>5.3000000000000005E-2</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A88" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B88" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C88" s="13" t="s">
-        <v>213</v>
+      <c r="A88" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="D88">
         <v>9</v>
       </c>
-      <c r="F88" s="7">
+      <c r="F88" s="6">
         <f t="shared" ref="F88:F95" si="4">F87+0.3%</f>
         <v>5.6000000000000008E-2</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A89" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B89" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C89" s="13" t="s">
-        <v>213</v>
+      <c r="A89" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="D89">
         <v>12</v>
       </c>
-      <c r="F89" s="7">
+      <c r="F89" s="6">
         <f t="shared" si="4"/>
         <v>5.9000000000000011E-2</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A90" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B90" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C90" s="13" t="s">
-        <v>213</v>
+      <c r="A90" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="D90">
         <v>15</v>
       </c>
-      <c r="F90" s="7">
+      <c r="F90" s="6">
         <f t="shared" si="4"/>
         <v>6.2000000000000013E-2</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A91" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B91" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C91" s="13" t="s">
-        <v>213</v>
+      <c r="A91" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="D91">
         <v>18</v>
       </c>
-      <c r="F91" s="7">
+      <c r="F91" s="6">
         <f t="shared" si="4"/>
         <v>6.5000000000000016E-2</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A92" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B92" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C92" s="13" t="s">
-        <v>213</v>
+      <c r="A92" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="D92">
         <v>24</v>
       </c>
-      <c r="F92" s="7">
+      <c r="F92" s="6">
         <f t="shared" si="4"/>
         <v>6.8000000000000019E-2</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A93" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B93" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C93" s="13" t="s">
-        <v>213</v>
+      <c r="A93" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="D93">
         <v>36</v>
       </c>
-      <c r="F93" s="7">
+      <c r="F93" s="6">
         <f t="shared" si="4"/>
         <v>7.1000000000000021E-2</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A94" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B94" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C94" s="13" t="s">
-        <v>213</v>
+      <c r="A94" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="D94">
         <v>48</v>
       </c>
-      <c r="F94" s="7">
+      <c r="F94" s="6">
         <f t="shared" si="4"/>
         <v>7.4000000000000024E-2</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A95" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B95" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C95" s="13" t="s">
-        <v>213</v>
+      <c r="A95" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="D95">
         <v>60</v>
       </c>
-      <c r="F95" s="7">
+      <c r="F95" s="6">
         <f t="shared" si="4"/>
         <v>7.7000000000000027E-2</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A96" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B96" s="13" t="s">
+      <c r="A96" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B96" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C96" s="13" t="s">
-        <v>213</v>
+      <c r="C96" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="D96">
         <v>3</v>
       </c>
-      <c r="F96" s="7">
+      <c r="F96" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A97" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B97" s="13" t="s">
+      <c r="A97" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B97" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C97" s="13" t="s">
-        <v>213</v>
+      <c r="C97" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="D97">
         <v>6</v>
       </c>
-      <c r="F97" s="7">
+      <c r="F97" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A98" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B98" s="13" t="s">
+      <c r="A98" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B98" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C98" s="13" t="s">
-        <v>213</v>
+      <c r="C98" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="D98">
         <v>9</v>
       </c>
-      <c r="F98" s="7">
+      <c r="F98" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A99" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B99" s="13" t="s">
+      <c r="A99" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B99" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C99" s="13" t="s">
-        <v>213</v>
+      <c r="C99" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="D99">
         <v>12</v>
       </c>
-      <c r="F99" s="7">
+      <c r="F99" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A100" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B100" s="13" t="s">
+      <c r="A100" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B100" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C100" s="13" t="s">
-        <v>213</v>
+      <c r="C100" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="D100">
         <v>15</v>
       </c>
-      <c r="F100" s="7">
+      <c r="F100" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A101" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B101" s="13" t="s">
+      <c r="A101" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B101" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C101" s="13" t="s">
-        <v>213</v>
+      <c r="C101" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="D101">
         <v>18</v>
       </c>
-      <c r="F101" s="7">
+      <c r="F101" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A102" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B102" s="13" t="s">
+      <c r="A102" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B102" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C102" s="13" t="s">
-        <v>213</v>
+      <c r="C102" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="D102">
         <v>24</v>
       </c>
-      <c r="F102" s="7">
+      <c r="F102" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A103" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B103" s="13" t="s">
+      <c r="A103" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B103" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C103" s="13" t="s">
-        <v>213</v>
+      <c r="C103" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="D103">
         <v>36</v>
       </c>
-      <c r="F103" s="7">
+      <c r="F103" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A104" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B104" s="13" t="s">
+      <c r="A104" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B104" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C104" s="13" t="s">
-        <v>213</v>
+      <c r="C104" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="D104">
         <v>48</v>
       </c>
-      <c r="F104" s="7">
+      <c r="F104" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A105" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B105" s="13" t="s">
+      <c r="A105" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B105" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C105" s="13" t="s">
-        <v>213</v>
+      <c r="C105" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="D105">
         <v>60</v>
       </c>
-      <c r="F105" s="7">
+      <c r="F105" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A106" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B106" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="C106" s="13" t="s">
+      <c r="A106" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B106" s="12" t="s">
         <v>213</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="D106">
         <v>3</v>
       </c>
-      <c r="F106" s="7">
+      <c r="F106" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A107" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B107" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="C107" s="13" t="s">
+      <c r="A107" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B107" s="12" t="s">
         <v>213</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="D107">
         <v>6</v>
       </c>
-      <c r="F107" s="7">
+      <c r="F107" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A108" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B108" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="C108" s="13" t="s">
+      <c r="A108" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B108" s="12" t="s">
         <v>213</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="D108">
         <v>9</v>
       </c>
-      <c r="F108" s="7">
+      <c r="F108" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A109" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B109" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="C109" s="13" t="s">
+      <c r="A109" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B109" s="12" t="s">
         <v>213</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="D109">
         <v>12</v>
       </c>
-      <c r="F109" s="7">
+      <c r="F109" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A110" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B110" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="C110" s="13" t="s">
+      <c r="A110" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B110" s="12" t="s">
         <v>213</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="D110">
         <v>15</v>
       </c>
-      <c r="F110" s="7">
+      <c r="F110" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A111" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B111" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="C111" s="13" t="s">
+      <c r="A111" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B111" s="12" t="s">
         <v>213</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="D111">
         <v>18</v>
       </c>
-      <c r="F111" s="7">
+      <c r="F111" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A112" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B112" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="C112" s="13" t="s">
+      <c r="A112" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B112" s="12" t="s">
         <v>213</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="D112">
         <v>24</v>
       </c>
-      <c r="F112" s="7">
+      <c r="F112" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A113" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B113" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="C113" s="13" t="s">
+      <c r="A113" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B113" s="12" t="s">
         <v>213</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="D113">
         <v>36</v>
       </c>
-      <c r="F113" s="7">
+      <c r="F113" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A114" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B114" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="C114" s="13" t="s">
+      <c r="A114" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B114" s="12" t="s">
         <v>213</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="D114">
         <v>48</v>
       </c>
-      <c r="F114" s="7">
+      <c r="F114" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A115" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B115" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="C115" s="13" t="s">
+      <c r="A115" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B115" s="12" t="s">
         <v>213</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="D115">
         <v>60</v>
       </c>
-      <c r="F115" s="7">
+      <c r="F115" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A116" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B116" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C116" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="F116" s="7">
+      <c r="A116" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="F116" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A117" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B117" s="13" t="s">
+      <c r="A117" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B117" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C117" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="F117" s="7">
+      <c r="C117" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="F117" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A118" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B118" s="13" t="s">
+      <c r="A118" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C118" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="C118" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="F118" s="7">
+      <c r="F118" s="6">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A119" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B119" s="15" t="s">
+      <c r="A119" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B119" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="F119" s="6">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A120" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B120" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="C119" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="F119" s="7">
+      <c r="C120" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="F120" s="6">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A120" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B120" s="15" t="s">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A121" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B121" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="F121" s="6">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A122" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B122" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="C120" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="F120" s="7">
+      <c r="C122" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="F122" s="6">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A121" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B121" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C121" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="F121" s="7">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A122" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B122" s="15" t="s">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A123" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B123" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="C122" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="F122" s="7">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A123" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B123" s="15" t="s">
+      <c r="C123" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="F123" s="6">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A124" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B124" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="C123" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="F123" s="7">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A124" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B124" s="15" t="s">
+      <c r="C124" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="F124" s="6">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A125" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B125" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="C124" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="F124" s="7">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A125" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B125" s="15" t="s">
+      <c r="C125" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="F125" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A126" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B126" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="C125" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="F125" s="7">
+      <c r="C126" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="F126" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A126" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B126" s="15" t="s">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A127" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B127" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="C126" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="F126" s="7">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A127" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B127" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="C127" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="F127" s="7">
+      <c r="C127" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="F127" s="6">
         <v>1E-3</v>
       </c>
     </row>

--- a/java/project-JavaBank/out/production/bai-12-JavaBank/io/data.xlsx
+++ b/java/project-JavaBank/out/production/bai-12-JavaBank/io/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huy Binh\Documents\GitHub\nguyenhuybinh2604.github.io\java\project-JavaBank\src\io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0891CEF8-CC59-40FF-880B-0256A91E9E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B38C4E3-A278-4FED-88E9-24BFA63C03C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Saving" sheetId="8" r:id="rId7"/>
     <sheet name="exchangeRate" sheetId="6" r:id="rId8"/>
     <sheet name="interestRate" sheetId="9" r:id="rId9"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId10"/>
+    <sheet name="transactionLog" sheetId="11" r:id="rId10"/>
     <sheet name="BS" sheetId="10" r:id="rId11"/>
   </sheets>
   <definedNames>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="356">
   <si>
     <t>customerId</t>
   </si>
@@ -714,9 +714,6 @@
     <t>LOAN</t>
   </si>
   <si>
-    <t>UNKNOWN</t>
-  </si>
-  <si>
     <t>SAVING</t>
   </si>
   <si>
@@ -757,6 +754,399 @@
   </si>
   <si>
     <t>userStatus</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>IDs       Staff IDs   Value Date    Maturity Tenor (M)  Currency                       Balance                Balance in VND      IR    Status      Type</t>
+  </si>
+  <si>
+    <t>1         null        02/07/2012                  null       VND                    537,251.00                    537,251.00   0.50%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>2         1           04/08/2018                  null       VND                    238,237.00                    238,237.00   0.50%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>3         2           01/03/2013                  null       VND                    536,806.00                    536,806.00   0.50%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>4         3           08/09/2015                  null       VND                     75,604.00                     75,604.00   0.50%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>5         1           09/04/2016                  null       VND                    113,622.00                    113,622.00   0.50%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>6         2           29/06/2011                  null       VND                    287,474.00                    287,474.00   0.50%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>7         3           16/02/2011                  null       USD                      4,113.00                 96,655,500.00   0.00%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>8         1           07/07/2012                  null       USD                      4,172.00                 98,042,000.00   0.00%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>9         2           16/09/2015                  null       USD                      1,626.00                 38,211,000.00   0.00%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>10        3           26/06/2013                  null       USD                      3,420.00                 80,370,000.00   0.00%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>11        1           07/10/2019                  null       USD                      3,742.00                 87,937,000.00   0.00%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>12        2           29/03/2012                  null       USD                      4,345.00                102,107,500.00   0.00%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>13        3           18/11/2018                  null       EUR                        323.00                  8,421,155.87   0.40%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>14        1           16/09/2012                  null       EUR                        210.00                  5,475,054.90   0.40%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>15        2           19/10/2011                  null       EUR                        490.00                 12,775,128.10   0.40%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>16        3           19/10/2020                  null       EUR                        481.00                 12,540,482.89   0.40%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>17        3           08/12/2014                  null       EUR                        287.00                  7,482,575.03   0.40%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>18        3           05/04/2012                  null       EUR                        491.00                 12,801,199.79   0.40%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>19        1           21/04/2017                  null       VND                  9,980,102.00                  9,980,102.00   0.50%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>20        3           10/11/2020                  null       VND                  5,476,967.00                  5,476,967.00   0.50%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>21        3           09/12/2022                  null       VND                  4,549,845.00                  4,549,845.00   0.50%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>22        2           06/11/2019                  null       VND                  5,863,377.00                  5,863,377.00   0.50%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>23        3           06/05/2019                  null       VND                  8,448,457.00                  8,448,457.00   0.50%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>24        2           27/09/2022                  null       VND                  3,872,282.00                  3,872,282.00   0.50%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>25        2           28/02/2017                  null       VND                  5,739,796.00                  5,739,796.00   0.50%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>26        1           29/06/2019                  null       VND                  7,755,939.00                  7,755,939.00   0.50%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>27        3           09/11/2022                  null       VND                  7,213,398.00                  7,213,398.00   0.50%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>28        3           05/08/2021                  null       VND                  6,577,462.00                  6,577,462.00   0.50%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>29        1           05/04/2019                  null       VND                  2,960,169.00                  2,960,169.00   0.50%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>30        3           14/09/2021                  null       VND                  8,009,206.00                  8,009,206.00   0.50%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>31        1           10/01/2021                  null       VND                  7,747,227.00                  7,747,227.00   0.50%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>32        2           28/10/2022                  null       VND                  8,563,947.00                  8,563,947.00   0.50%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>33        2           12/02/2020                  null       VND                  9,371,489.00                  9,371,489.00   0.50%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>34        2           04/02/2018                  null       VND                  5,359,387.00                  5,359,387.00   0.50%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>35        null        21/01/2020                  null       VND                  7,487,506.00                  7,487,506.00   0.50%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>36        2           08/09/2022                  null       VND                  1,603,258.00                  1,603,258.00   0.50%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>37        1           28/07/2020                  null       VND                  2,798,196.00                  2,798,196.00   0.50%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>38        2           22/10/2019                  null       USD                        150.00                  3,525,000.00   0.00%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>39        1           11/10/2020                  null       USD                      2,967.00                 69,724,500.00   0.00%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>40        3           23/12/2020                  null       USD                        214.00                  5,029,000.00   0.00%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>41        3           08/02/2018                  null       USD                      2,850.00                 66,975,000.00   0.00%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>42        1           02/01/2021                  null       USD                      2,852.00                 67,022,000.00   0.00%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>43        2           24/06/2021                  null       USD                        351.00                  8,248,500.00   0.00%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>44        3           31/07/2020                  null       USD                        124.00                  2,914,000.00   0.00%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>45        2           08/12/2019                  null       USD                      1,990.00                 46,765,000.00   0.00%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>46        2           29/08/2020                  null       USD                        434.00                 10,199,000.00   0.00%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>47        2           16/04/2021                  null       USD                      1,177.00                 27,659,500.00   0.00%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>48        2           01/11/2018                  null       USD                        779.00                 18,306,500.00   0.00%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>49        3           20/05/2019                  null       USD                        360.00                  8,460,000.00   0.00%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>50        null        08/01/2021                  null       USD                        270.00                  6,345,000.00   0.00%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>51        1           12/04/2018                  null       USD                        194.00                  4,559,000.00   0.00%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>52        1           19/08/2018                  null       USD                        420.00                  9,870,000.00   0.00%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>53        null        14/08/2021                  null       USD                        277.00                  6,509,500.00   0.00%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>54        3           29/11/2019                  null       USD                      1,875.00                 44,062,500.00   0.00%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>55        1           25/01/2019                  null       USD                        662.00                 15,557,000.00   0.00%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>56        1           17/08/2021                  null       USD                      2,053.00                 48,245,500.00   0.00%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>57        1           26/06/2018                  null       EUR                        646.00                 16,842,311.74   0.40%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>58        null        26/04/2021                  null       EUR                        676.00                 17,624,462.44   0.40%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>59        1           30/07/2021                  null       EUR                        643.00                 16,764,096.67   0.40%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>60        3           29/01/2021                  null       EUR                        710.00                 18,510,899.90   0.40%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>61        3           30/01/2020                  null       EUR                        555.00                 14,469,787.95   0.40%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>62        2           17/02/2018                  null       EUR                        445.00                 11,601,902.05   0.40%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>63        3           30/07/2021                  null       EUR                         44.00                  1,147,154.36   0.40%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>64        3           15/01/2020                  null       EUR                        242.00                  6,309,348.98   0.40%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>65        3           06/07/2018                  null       EUR                         83.00                  2,163,950.27   0.40%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>66        2           06/10/2019                  null       EUR                        990.00                 25,810,973.10   0.40%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>67        1           19/04/2018                  null       EUR                        973.00                 25,367,754.37   0.40%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>68        3           24/05/2019                  null       EUR                        658.00                 17,155,172.02   0.40%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>69        3           30/05/2019                  null       EUR                        814.00                 21,222,355.66   0.40%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>70        2           22/06/2019                  null       EUR                        656.00                 17,103,028.64   0.40%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>71        2           17/03/2021                  null       EUR                         90.00                  2,346,452.10   0.40%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>72        2           13/08/2018                  null       EUR                        470.00                 12,253,694.30   0.40%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>73        null        10/02/2021                  null       EUR                        740.00                 19,293,050.60   0.40%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>74        2           13/09/2018                  null       EUR                        426.00                 11,106,539.94   0.40%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>75        2           02/11/2019                  null       EUR                        389.00                 10,141,887.41   0.40%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>1         null        27/04/2020  27/04/2020        60       VND              3,000,000,000.00              3,000,000,000.00  11.60%    ACTIVE      LOAN</t>
+  </si>
+  <si>
+    <t>2         1           11/10/2019  11/10/2019       240       VND             10,000,000,000.00             10,000,000,000.00  13.30%    ACTIVE      LOAN</t>
+  </si>
+  <si>
+    <t>3         2           09/07/2020  09/07/2020        48       VND             14,000,000,000.00             14,000,000,000.00  12.20%    ACTIVE      LOAN</t>
+  </si>
+  <si>
+    <t>4         3                                         84       VND             38,000,000,000.00             38,000,000,000.00   0.00%    LOCKED      LOAN</t>
+  </si>
+  <si>
+    <t>5         1                                          9       VND             30,000,000,000.00             30,000,000,000.00   0.00%    LOCKED      LOAN</t>
+  </si>
+  <si>
+    <t>7         3           27/09/2020  27/09/2020       120       USD                    628,877.00             14,778,609,500.00   4.10%    ACTIVE      LOAN</t>
+  </si>
+  <si>
+    <t>8         1           04/01/2020  04/01/2020       360       USD                    904,812.00             21,263,082,000.00   4.80%    ACTIVE      LOAN</t>
+  </si>
+  <si>
+    <t>9         2                                         48       USD                    112,665.00              2,647,627,500.00   0.00%    LOCKED      LOAN</t>
+  </si>
+  <si>
+    <t>10        3           21/11/2019  21/11/2019       240       USD                    908,493.00             21,349,585,500.00   4.20%    ACTIVE      LOAN</t>
+  </si>
+  <si>
+    <t>11        1                                         60       USD                    230,145.00              5,408,407,500.00   0.00%    LOCKED      LOAN</t>
+  </si>
+  <si>
+    <t>13        3           02/10/2022  02/10/2022       240       VND             39,000,000,000.00             39,000,000,000.00  12.80%    ACTIVE      LOAN</t>
+  </si>
+  <si>
+    <t>14        1           23/02/2022  23/02/2022       360       VND             48,000,000,000.00             48,000,000,000.00  13.70%    ACTIVE      LOAN</t>
+  </si>
+  <si>
+    <t>15        2           19/05/2022  19/05/2022       120       VND             31,000,000,000.00             31,000,000,000.00  13.40%    ACTIVE      LOAN</t>
+  </si>
+  <si>
+    <t>17        1                                         15       VND             45,000,000,000.00             45,000,000,000.00   0.00%    LOCKED      LOAN</t>
+  </si>
+  <si>
+    <t>19        3           19/02/2021  19/02/2021        36       VND             31,000,000,000.00             31,000,000,000.00  10.80%    ACTIVE      LOAN</t>
+  </si>
+  <si>
+    <t>20        null        10/09/2022  10/09/2022        48       VND              2,000,000,000.00              2,000,000,000.00  11.70%    ACTIVE      LOAN</t>
+  </si>
+  <si>
+    <t>1         2           21/10/2022  21/10/2022        18       VND                300,000,000.00                300,000,000.00   6.50%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>2         2           12/10/2022  12/10/2022        36       VND              1,000,000,000.00              1,000,000,000.00   7.10%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>3         1           17/02/2023  17/02/2023        12       VND              1,400,000,000.00              1,400,000,000.00   5.90%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>4         3           03/10/2022  03/10/2022        36       VND              3,800,000,000.00              3,800,000,000.00   7.10%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>5         1           24/11/2022  24/11/2022        12       VND              3,000,000,000.00              3,000,000,000.00   5.90%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>6         3           29/11/2022  29/11/2022        36       VND              1,100,000,000.00              1,100,000,000.00   7.10%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>7         1           01/10/2022  01/10/2022         9       VND             62,887,700,000.00             62,887,700,000.00   5.60%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>8         2           27/04/2023  27/04/2023        15       VND             90,481,200,000.00             90,481,200,000.00   6.20%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>9         3           10/11/2022  10/11/2022        12       VND             11,266,500,000.00             11,266,500,000.00   5.90%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>10        1           23/10/2022  23/10/2022         9       VND             90,849,300,000.00             90,849,300,000.00   5.60%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>11        2           27/01/2023  27/01/2023         9       VND             23,014,500,000.00             23,014,500,000.00   5.60%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>12        1           13/04/2023  13/04/2023        15       VND             53,044,600,000.00             53,044,600,000.00   6.20%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>13        1           16/01/2023  16/01/2023        36       VND              3,900,000,000.00              3,900,000,000.00   7.10%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>14        2           21/03/2023  21/03/2023        60       VND              4,800,000,000.00              4,800,000,000.00   7.70%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>15        2           22/02/2023  22/02/2023         9       VND              3,100,000,000.00              3,100,000,000.00   5.60%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>16        3           05/02/2023  05/02/2023        24       VND              4,200,000,000.00              4,200,000,000.00   6.80%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>17        3           09/04/2023  09/04/2023        18       VND              4,500,000,000.00              4,500,000,000.00   6.50%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>18        3           07/11/2022  07/11/2022        12       VND              1,900,000,000.00              1,900,000,000.00   5.90%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>19        2           12/03/2023  12/03/2023        48       VND              3,100,000,000.00              3,100,000,000.00   7.40%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>20        1           14/11/2022  14/11/2022        48       VND             17,000,000,000.00             17,000,000,000.00   7.40%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>21        1           17/12/2022  17/12/2022        48       VND              1,500,000,000.00              1,500,000,000.00   7.40%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>22        3           06/12/2022  06/12/2022        48       VND             15,000,000,000.00             15,000,000,000.00   7.40%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>23        1           12/03/2023  12/03/2023        36       VND              2,000,000,000.00              2,000,000,000.00   7.10%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>24        2           23/12/2022  23/12/2022        60       VND             20,000,000,000.00             20,000,000,000.00   7.70%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>25        3           25/02/2023  25/02/2023        36       VND              6,000,000,000.00              6,000,000,000.00   7.10%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>26        3           01/01/2023  01/01/2023        24       VND                200,000,000.00                200,000,000.00   6.80%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>27        1           12/10/2022  12/10/2022        12       VND              8,500,000,000.00              8,500,000,000.00   5.90%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>28        3           13/02/2023  13/02/2023        18       VND              6,000,000,000.00              6,000,000,000.00   6.50%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>29        3           19/11/2022  19/11/2022        12       USD                    200,000.00              4,700,000,000.00   0.00%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>30        3           11/12/2022  11/12/2022        12       USD                    200,001.00              4,700,023,500.00   0.00%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>32        2           22/11/2022  22/11/2022        48       USD                    200,003.00              4,700,070,500.00   0.00%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>33        3           13/04/2023  13/04/2023        15       USD                    200,004.00              4,700,094,000.00   0.00%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>35        2           10/04/2023  10/04/2023         3       USD                    200,006.00              4,700,141,000.00   0.00%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>36        1           08/04/2023  08/04/2023        24       USD                    200,007.00              4,700,164,500.00   0.00%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>37        3           25/10/2022  25/10/2022        36       USD                    200,008.00              4,700,188,000.00   0.00%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>38        3           07/04/2023  07/04/2023        48       USD                    200,009.00              4,700,211,500.00   0.00%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>39        3           18/04/2023  18/04/2023        60       USD                    200,010.00              4,700,235,000.00   0.00%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>40        2           20/10/2022  20/10/2022        24       USD                    200,011.00              4,700,258,500.00   0.00%    ACTIVE    SAVING</t>
   </si>
 </sst>
 </file>
@@ -766,13 +1156,20 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -847,6 +1244,11 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -867,27 +1269,30 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1107,8 +1512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1142,7 +1547,7 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
@@ -1253,8 +1658,8 @@
       <c r="E6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>211</v>
+      <c r="F6" s="17" t="s">
+        <v>225</v>
       </c>
       <c r="G6" t="s">
         <v>86</v>
@@ -1438,7 +1843,7 @@
         <v>195</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="G14" t="s">
         <v>86</v>
@@ -1553,7 +1958,7 @@
         <v>200</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="G19" t="s">
         <v>86</v>
@@ -1721,7 +2126,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -1729,17 +2134,680 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF66A9F-C555-407B-AFB1-FA9ED92A7166}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A34">
-    <sortCondition ref="A1:A34"/>
+  <cols>
+    <col min="3" max="3" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.9296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.46484375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.73046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A114" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A116" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A117" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A118" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A119" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A120" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A122" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A123" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A124" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A125" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A126" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A127" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A128" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A129" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A130" t="s">
+        <v>355</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A36">
+    <sortCondition ref="A1:A36"/>
   </sortState>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1749,7 +2817,7 @@
   <dimension ref="B3:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1829,7 +2897,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1868,7 +2936,7 @@
         <v>21</v>
       </c>
       <c r="H1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
@@ -1960,7 +3028,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1992,7 +3060,7 @@
         <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
@@ -2029,7 +3097,7 @@
   <dimension ref="A1:E1013"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3533,7 +4601,7 @@
     <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -3543,8 +4611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF21B7AB-93DC-4751-874C-8807C9FDCFB9}">
   <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3980,7 +5048,7 @@
         <v>43422</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H14">
         <v>323</v>
@@ -4011,7 +5079,7 @@
         <v>41168</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H15">
         <v>210</v>
@@ -4042,7 +5110,7 @@
         <v>40835</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H16">
         <v>490</v>
@@ -4073,7 +5141,7 @@
         <v>44123</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H17">
         <v>481</v>
@@ -4104,7 +5172,7 @@
         <v>41981</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H18">
         <v>287</v>
@@ -4135,7 +5203,7 @@
         <v>41004</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H19">
         <v>491</v>
@@ -5335,7 +6403,7 @@
         <v>43277</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H58">
         <v>646</v>
@@ -5363,7 +6431,7 @@
         <v>44312</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H59">
         <v>676</v>
@@ -5394,7 +6462,7 @@
         <v>44407</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H60">
         <v>643</v>
@@ -5425,7 +6493,7 @@
         <v>44225</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H61">
         <v>710</v>
@@ -5456,7 +6524,7 @@
         <v>43860</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H62">
         <v>555</v>
@@ -5487,7 +6555,7 @@
         <v>43148</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H63">
         <v>445</v>
@@ -5518,7 +6586,7 @@
         <v>44407</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H64">
         <v>44</v>
@@ -5549,7 +6617,7 @@
         <v>43845</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H65">
         <v>242</v>
@@ -5580,7 +6648,7 @@
         <v>43287</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H66">
         <v>83</v>
@@ -5611,7 +6679,7 @@
         <v>43744</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H67">
         <v>990</v>
@@ -5642,7 +6710,7 @@
         <v>43209</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H68">
         <v>973</v>
@@ -5673,7 +6741,7 @@
         <v>43609</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H69">
         <v>658</v>
@@ -5704,7 +6772,7 @@
         <v>43615</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H70">
         <v>814</v>
@@ -5735,7 +6803,7 @@
         <v>43638</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H71">
         <v>656</v>
@@ -5766,7 +6834,7 @@
         <v>44272</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H72">
         <v>90</v>
@@ -5797,7 +6865,7 @@
         <v>43325</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H73">
         <v>470</v>
@@ -5825,7 +6893,7 @@
         <v>44237</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H74">
         <v>740</v>
@@ -5856,7 +6924,7 @@
         <v>43356</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H75">
         <v>426</v>
@@ -5887,7 +6955,7 @@
         <v>43771</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H76">
         <v>389</v>
@@ -5905,7 +6973,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5915,13 +6983,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E00A1F-C9F6-4EB8-BE07-062FE55637D2}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.59765625" style="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.53125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.73046875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.19921875" bestFit="1" customWidth="1"/>
@@ -5929,14 +6997,14 @@
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.46484375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.3984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.73046875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
       <c r="B1" t="s">
@@ -5974,7 +7042,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A2">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
       <c r="B2" s="1">
@@ -6013,7 +7081,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A3">
+      <c r="A3" s="19">
         <v>2</v>
       </c>
       <c r="B3" s="1">
@@ -6055,7 +7123,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A4">
+      <c r="A4" s="19">
         <v>3</v>
       </c>
       <c r="B4" s="1">
@@ -6097,7 +7165,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A5">
+      <c r="A5" s="19">
         <v>4</v>
       </c>
       <c r="B5" s="1">
@@ -6124,7 +7192,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L5" t="str">
         <f>VLOOKUP(B5,Customer!$A$2:$F$26,6)</f>
@@ -6132,7 +7200,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A6">
+      <c r="A6" s="19">
         <v>5</v>
       </c>
       <c r="B6" s="1">
@@ -6159,15 +7227,15 @@
         <v>0</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L6" t="str">
         <f>VLOOKUP(B6,Customer!$A$2:$F$26,6)</f>
-        <v>UNKNOWN</v>
+        <v>NA</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A7">
+      <c r="A7" s="19">
         <v>6</v>
       </c>
       <c r="B7" s="1">
@@ -6181,10 +7249,10 @@
       </c>
       <c r="E7" s="5">
         <f t="shared" si="0"/>
-        <v>44344</v>
+        <v>45258</v>
       </c>
       <c r="F7" s="7">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>81</v>
@@ -6198,7 +7266,7 @@
       </c>
       <c r="J7" s="6">
         <f>IF(K7="LOCKED",0,SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G7,interestRate!$D:$D,Loan!F7,interestRate!$E:$E,Loan!L7))</f>
-        <v>8.4000000000000005E-2</v>
+        <v>0.10800000000000003</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>86</v>
@@ -6209,7 +7277,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A8">
+      <c r="A8" s="19">
         <v>7</v>
       </c>
       <c r="B8" s="1">
@@ -6251,7 +7319,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A9">
+      <c r="A9" s="19">
         <v>8</v>
       </c>
       <c r="B9" s="1">
@@ -6293,7 +7361,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A10">
+      <c r="A10" s="19">
         <v>9</v>
       </c>
       <c r="B10" s="1">
@@ -6320,7 +7388,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L10" t="str">
         <f>VLOOKUP(B10,Customer!$A$2:$F$26,6)</f>
@@ -6328,7 +7396,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A11">
+      <c r="A11" s="19">
         <v>10</v>
       </c>
       <c r="B11" s="1">
@@ -6370,7 +7438,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A12">
+      <c r="A12" s="19">
         <v>11</v>
       </c>
       <c r="B12" s="1">
@@ -6397,15 +7465,15 @@
         <v>0</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L12" t="str">
         <f>VLOOKUP(B12,Customer!$A$2:$F$26,6)</f>
-        <v>UNKNOWN</v>
+        <v>NA</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A13">
+      <c r="A13" s="19">
         <v>12</v>
       </c>
       <c r="B13" s="1">
@@ -6419,10 +7487,10 @@
       </c>
       <c r="E13" s="5">
         <f t="shared" si="0"/>
-        <v>43884</v>
+        <v>45619</v>
       </c>
       <c r="F13" s="7">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>82</v>
@@ -6436,7 +7504,7 @@
       </c>
       <c r="J13" s="6">
         <f>IF(K13="LOCKED",0,SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G13,interestRate!$D:$D,Loan!F13,interestRate!$E:$E,Loan!L13))</f>
-        <v>0.03</v>
+        <v>3.9000000000000007E-2</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>86</v>
@@ -6447,7 +7515,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A14">
+      <c r="A14" s="19">
         <v>13</v>
       </c>
       <c r="B14" s="1">
@@ -6489,7 +7557,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A15">
+      <c r="A15" s="19">
         <v>14</v>
       </c>
       <c r="B15" s="1">
@@ -6531,7 +7599,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A16">
+      <c r="A16" s="19">
         <v>15</v>
       </c>
       <c r="B16" s="1">
@@ -6573,7 +7641,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A17">
+      <c r="A17" s="19">
         <v>16</v>
       </c>
       <c r="B17" s="1">
@@ -6587,10 +7655,10 @@
       </c>
       <c r="E17" s="5">
         <f t="shared" si="0"/>
-        <v>44671</v>
+        <v>45767</v>
       </c>
       <c r="F17" s="7">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>81</v>
@@ -6604,7 +7672,7 @@
       </c>
       <c r="J17" s="6">
         <f>IF(K17="LOCKED",0,SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G17,interestRate!$D:$D,Loan!F17,interestRate!$E:$E,Loan!L17))</f>
-        <v>9.2000000000000012E-2</v>
+        <v>0.11200000000000003</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>86</v>
@@ -6615,7 +7683,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A18">
+      <c r="A18" s="19">
         <v>17</v>
       </c>
       <c r="B18" s="1">
@@ -6642,15 +7710,15 @@
         <v>0</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L18" t="str">
         <f>VLOOKUP(B18,Customer!$A$2:$F$26,6)</f>
-        <v>UNKNOWN</v>
+        <v>NA</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A19">
+      <c r="A19" s="19">
         <v>18</v>
       </c>
       <c r="B19" s="1">
@@ -6664,10 +7732,10 @@
       </c>
       <c r="E19" s="5">
         <f t="shared" si="0"/>
-        <v>44905</v>
+        <v>45270</v>
       </c>
       <c r="F19" s="7">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>81</v>
@@ -6681,7 +7749,7 @@
       </c>
       <c r="J19" s="6">
         <f>IF(K19="LOCKED",0,SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G19,interestRate!$D:$D,Loan!F19,interestRate!$E:$E,Loan!L19))</f>
-        <v>0.10400000000000002</v>
+        <v>0.10800000000000003</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>86</v>
@@ -6692,7 +7760,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A20">
+      <c r="A20" s="19">
         <v>19</v>
       </c>
       <c r="B20" s="4">
@@ -6734,7 +7802,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A21">
+      <c r="A21" s="19">
         <v>20</v>
       </c>
       <c r="B21" s="4">
@@ -6781,13 +7849,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB35AC3-6DBB-4728-A5E8-FCDA1B812037}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1328125" style="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.53125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.73046875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.19921875" bestFit="1" customWidth="1"/>
@@ -6801,7 +7869,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="18" t="s">
         <v>106</v>
       </c>
       <c r="B1" t="s">
@@ -6836,7 +7904,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
       <c r="B2" s="1">
@@ -6873,7 +7941,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3">
+      <c r="A3" s="19">
         <v>2</v>
       </c>
       <c r="B3" s="1">
@@ -6910,7 +7978,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4">
+      <c r="A4" s="19">
         <v>3</v>
       </c>
       <c r="B4" s="1">
@@ -6947,7 +8015,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5">
+      <c r="A5" s="19">
         <v>4</v>
       </c>
       <c r="B5" s="1">
@@ -6984,7 +8052,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6">
+      <c r="A6" s="19">
         <v>5</v>
       </c>
       <c r="B6" s="1">
@@ -7021,7 +8089,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7">
+      <c r="A7" s="19">
         <v>6</v>
       </c>
       <c r="B7" s="1">
@@ -7058,7 +8126,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8">
+      <c r="A8" s="19">
         <v>7</v>
       </c>
       <c r="B8" s="1">
@@ -7095,7 +8163,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9">
+      <c r="A9" s="19">
         <v>8</v>
       </c>
       <c r="B9" s="1">
@@ -7132,7 +8200,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A10">
+      <c r="A10" s="19">
         <v>9</v>
       </c>
       <c r="B10" s="1">
@@ -7169,7 +8237,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11">
+      <c r="A11" s="19">
         <v>10</v>
       </c>
       <c r="B11" s="1">
@@ -7206,7 +8274,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12">
+      <c r="A12" s="19">
         <v>11</v>
       </c>
       <c r="B12" s="1">
@@ -7243,7 +8311,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13">
+      <c r="A13" s="19">
         <v>12</v>
       </c>
       <c r="B13" s="1">
@@ -7280,7 +8348,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14">
+      <c r="A14" s="19">
         <v>13</v>
       </c>
       <c r="B14" s="1">
@@ -7317,7 +8385,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A15">
+      <c r="A15" s="19">
         <v>14</v>
       </c>
       <c r="B15" s="1">
@@ -7354,7 +8422,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A16">
+      <c r="A16" s="19">
         <v>15</v>
       </c>
       <c r="B16" s="1">
@@ -7391,7 +8459,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A17">
+      <c r="A17" s="19">
         <v>16</v>
       </c>
       <c r="B17" s="1">
@@ -7428,7 +8496,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A18">
+      <c r="A18" s="19">
         <v>17</v>
       </c>
       <c r="B18" s="1">
@@ -7465,7 +8533,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A19">
+      <c r="A19" s="19">
         <v>18</v>
       </c>
       <c r="B19" s="1">
@@ -7502,7 +8570,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A20">
+      <c r="A20" s="19">
         <v>19</v>
       </c>
       <c r="B20" s="1">
@@ -7539,7 +8607,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A21">
+      <c r="A21" s="19">
         <v>20</v>
       </c>
       <c r="B21" s="1">
@@ -7576,7 +8644,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A22">
+      <c r="A22" s="19">
         <v>21</v>
       </c>
       <c r="B22" s="1">
@@ -7613,7 +8681,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A23">
+      <c r="A23" s="19">
         <v>22</v>
       </c>
       <c r="B23" s="1">
@@ -7650,7 +8718,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A24">
+      <c r="A24" s="19">
         <v>23</v>
       </c>
       <c r="B24" s="1">
@@ -7687,7 +8755,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A25">
+      <c r="A25" s="19">
         <v>24</v>
       </c>
       <c r="B25" s="1">
@@ -7724,7 +8792,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A26">
+      <c r="A26" s="19">
         <v>25</v>
       </c>
       <c r="B26" s="1">
@@ -7761,7 +8829,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A27">
+      <c r="A27" s="19">
         <v>26</v>
       </c>
       <c r="B27" s="1">
@@ -7798,7 +8866,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A28">
+      <c r="A28" s="19">
         <v>27</v>
       </c>
       <c r="B28" s="1">
@@ -7835,7 +8903,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A29">
+      <c r="A29" s="19">
         <v>28</v>
       </c>
       <c r="B29" s="1">
@@ -7872,7 +8940,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A30">
+      <c r="A30" s="19">
         <v>29</v>
       </c>
       <c r="B30" s="1">
@@ -7909,7 +8977,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A31">
+      <c r="A31" s="19">
         <v>30</v>
       </c>
       <c r="B31" s="1">
@@ -7946,7 +9014,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A32">
+      <c r="A32" s="19">
         <v>31</v>
       </c>
       <c r="B32" s="1">
@@ -7960,10 +9028,10 @@
       </c>
       <c r="E32" s="5">
         <f t="shared" si="0"/>
-        <v>45031</v>
+        <v>45122</v>
       </c>
       <c r="F32">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>82</v>
@@ -7983,7 +9051,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A33">
+      <c r="A33" s="19">
         <v>32</v>
       </c>
       <c r="B33" s="1">
@@ -8020,7 +9088,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A34">
+      <c r="A34" s="19">
         <v>33</v>
       </c>
       <c r="B34" s="1">
@@ -8057,7 +9125,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A35">
+      <c r="A35" s="19">
         <v>34</v>
       </c>
       <c r="B35" s="1">
@@ -8071,10 +9139,10 @@
       </c>
       <c r="E35" s="5">
         <f t="shared" si="0"/>
-        <v>45023</v>
+        <v>45114</v>
       </c>
       <c r="F35">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>82</v>
@@ -8094,7 +9162,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A36">
+      <c r="A36" s="19">
         <v>35</v>
       </c>
       <c r="B36" s="1">
@@ -8131,7 +9199,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A37">
+      <c r="A37" s="19">
         <v>36</v>
       </c>
       <c r="B37" s="1">
@@ -8168,7 +9236,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A38">
+      <c r="A38" s="19">
         <v>37</v>
       </c>
       <c r="B38" s="1">
@@ -8205,7 +9273,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A39">
+      <c r="A39" s="19">
         <v>38</v>
       </c>
       <c r="B39" s="1">
@@ -8242,7 +9310,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A40">
+      <c r="A40" s="19">
         <v>39</v>
       </c>
       <c r="B40" s="1">
@@ -8279,7 +9347,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A41">
+      <c r="A41" s="19">
         <v>40</v>
       </c>
       <c r="B41" s="1">
@@ -8325,7 +9393,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8338,7 +9406,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>84</v>
@@ -8383,7 +9451,7 @@
         <v>44926</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>81</v>
@@ -8397,7 +9465,7 @@
         <v>44926</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>81</v>
@@ -8411,7 +9479,7 @@
         <v>44926</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>81</v>
@@ -8439,7 +9507,7 @@
         <v>44926</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>81</v>
@@ -8453,7 +9521,7 @@
         <v>44926</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>81</v>
@@ -8467,7 +9535,7 @@
         <v>44926</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>81</v>
@@ -8481,7 +9549,7 @@
         <v>44926</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>81</v>
@@ -8495,7 +9563,7 @@
         <v>44926</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>81</v>
@@ -8509,7 +9577,7 @@
         <v>44926</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>81</v>
@@ -8527,8 +9595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146A3E06-B983-43B3-A43F-658D5B96467C}">
   <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8543,7 +9611,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B1" t="s">
         <v>76</v>
@@ -10331,7 +11399,7 @@
         <v>81</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D86">
         <v>3</v>
@@ -10348,7 +11416,7 @@
         <v>81</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D87">
         <v>6</v>
@@ -10366,7 +11434,7 @@
         <v>81</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D88">
         <v>9</v>
@@ -10384,7 +11452,7 @@
         <v>81</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D89">
         <v>12</v>
@@ -10402,7 +11470,7 @@
         <v>81</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D90">
         <v>15</v>
@@ -10420,7 +11488,7 @@
         <v>81</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D91">
         <v>18</v>
@@ -10438,7 +11506,7 @@
         <v>81</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D92">
         <v>24</v>
@@ -10456,7 +11524,7 @@
         <v>81</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D93">
         <v>36</v>
@@ -10474,7 +11542,7 @@
         <v>81</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D94">
         <v>48</v>
@@ -10492,7 +11560,7 @@
         <v>81</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D95">
         <v>60</v>
@@ -10510,7 +11578,7 @@
         <v>82</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D96">
         <v>3</v>
@@ -10527,7 +11595,7 @@
         <v>82</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D97">
         <v>6</v>
@@ -10544,7 +11612,7 @@
         <v>82</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D98">
         <v>9</v>
@@ -10561,7 +11629,7 @@
         <v>82</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D99">
         <v>12</v>
@@ -10578,7 +11646,7 @@
         <v>82</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D100">
         <v>15</v>
@@ -10595,7 +11663,7 @@
         <v>82</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D101">
         <v>18</v>
@@ -10612,7 +11680,7 @@
         <v>82</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D102">
         <v>24</v>
@@ -10629,7 +11697,7 @@
         <v>82</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D103">
         <v>36</v>
@@ -10646,7 +11714,7 @@
         <v>82</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D104">
         <v>48</v>
@@ -10663,7 +11731,7 @@
         <v>82</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D105">
         <v>60</v>
@@ -10677,10 +11745,10 @@
         <v>44926</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D106">
         <v>3</v>
@@ -10694,10 +11762,10 @@
         <v>44926</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D107">
         <v>6</v>
@@ -10711,10 +11779,10 @@
         <v>44926</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D108">
         <v>9</v>
@@ -10728,10 +11796,10 @@
         <v>44926</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D109">
         <v>12</v>
@@ -10745,10 +11813,10 @@
         <v>44926</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D110">
         <v>15</v>
@@ -10762,10 +11830,10 @@
         <v>44926</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D111">
         <v>18</v>
@@ -10779,10 +11847,10 @@
         <v>44926</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D112">
         <v>24</v>
@@ -10796,10 +11864,10 @@
         <v>44926</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D113">
         <v>36</v>
@@ -10813,10 +11881,10 @@
         <v>44926</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D114">
         <v>48</v>
@@ -10830,10 +11898,10 @@
         <v>44926</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D115">
         <v>60</v>
@@ -10850,7 +11918,7 @@
         <v>81</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F116" s="6">
         <v>5.0000000000000001E-3</v>
@@ -10864,7 +11932,7 @@
         <v>82</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F117" s="6">
         <v>0</v>
@@ -10875,10 +11943,10 @@
         <v>44926</v>
       </c>
       <c r="B118" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C118" s="12" t="s">
         <v>213</v>
-      </c>
-      <c r="C118" s="12" t="s">
-        <v>214</v>
       </c>
       <c r="F118" s="6">
         <v>4.0000000000000001E-3</v>
@@ -10889,10 +11957,10 @@
         <v>44926</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F119" s="6">
         <v>1E-3</v>
@@ -10903,10 +11971,10 @@
         <v>44926</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F120" s="6">
         <v>1E-3</v>
@@ -10920,7 +11988,7 @@
         <v>83</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F121" s="6">
         <v>1E-3</v>
@@ -10931,10 +11999,10 @@
         <v>44926</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F122" s="6">
         <v>1E-3</v>
@@ -10945,10 +12013,10 @@
         <v>44926</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F123" s="6">
         <v>2E-3</v>
@@ -10959,10 +12027,10 @@
         <v>44926</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F124" s="6">
         <v>4.0000000000000001E-3</v>
@@ -10973,10 +12041,10 @@
         <v>44926</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F125" s="6">
         <v>3.0000000000000001E-3</v>
@@ -10987,10 +12055,10 @@
         <v>44926</v>
       </c>
       <c r="B126" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F126" s="6">
         <v>3.0000000000000001E-3</v>
@@ -11001,10 +12069,10 @@
         <v>44926</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F127" s="6">
         <v>1E-3</v>
